--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/web-app/bcf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/OK/web-app/BCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9618A176-88C4-A042-A1E2-870339B4CC84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9334759-4086-8F4F-A326-719A668B7D10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="25880" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="25880" windowHeight="11360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="gal_per_barrel">About!$A$63</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="423">
   <si>
     <t>(from physical units to million Btu)</t>
   </si>
@@ -2456,6 +2456,9 @@
   </si>
   <si>
     <t>GREET1 2019</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
   </si>
 </sst>
 </file>
@@ -3879,10 +3882,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4315,21 +4318,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C1" s="209">
-        <v>44307</v>
+      <c r="B1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" s="208">
+        <v>44374</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11321,44 +11329,44 @@
     </row>
     <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="208" t="s">
+      <c r="B78" s="209" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="208"/>
-      <c r="D78" s="208"/>
-      <c r="E78" s="208"/>
-      <c r="F78" s="208"/>
-      <c r="G78" s="208"/>
-      <c r="H78" s="208"/>
-      <c r="I78" s="208"/>
-      <c r="J78" s="208"/>
-      <c r="K78" s="208"/>
-      <c r="L78" s="208"/>
-      <c r="M78" s="208"/>
-      <c r="N78" s="208"/>
-      <c r="O78" s="208"/>
-      <c r="P78" s="208"/>
-      <c r="Q78" s="208"/>
-      <c r="R78" s="208"/>
-      <c r="S78" s="208"/>
-      <c r="T78" s="208"/>
-      <c r="U78" s="208"/>
-      <c r="V78" s="208"/>
-      <c r="W78" s="208"/>
-      <c r="X78" s="208"/>
-      <c r="Y78" s="208"/>
-      <c r="Z78" s="208"/>
-      <c r="AA78" s="208"/>
-      <c r="AB78" s="208"/>
-      <c r="AC78" s="208"/>
-      <c r="AD78" s="208"/>
-      <c r="AE78" s="208"/>
-      <c r="AF78" s="208"/>
-      <c r="AG78" s="208"/>
-      <c r="AH78" s="208"/>
-      <c r="AI78" s="208"/>
-      <c r="AJ78" s="208"/>
-      <c r="AK78" s="208"/>
+      <c r="C78" s="209"/>
+      <c r="D78" s="209"/>
+      <c r="E78" s="209"/>
+      <c r="F78" s="209"/>
+      <c r="G78" s="209"/>
+      <c r="H78" s="209"/>
+      <c r="I78" s="209"/>
+      <c r="J78" s="209"/>
+      <c r="K78" s="209"/>
+      <c r="L78" s="209"/>
+      <c r="M78" s="209"/>
+      <c r="N78" s="209"/>
+      <c r="O78" s="209"/>
+      <c r="P78" s="209"/>
+      <c r="Q78" s="209"/>
+      <c r="R78" s="209"/>
+      <c r="S78" s="209"/>
+      <c r="T78" s="209"/>
+      <c r="U78" s="209"/>
+      <c r="V78" s="209"/>
+      <c r="W78" s="209"/>
+      <c r="X78" s="209"/>
+      <c r="Y78" s="209"/>
+      <c r="Z78" s="209"/>
+      <c r="AA78" s="209"/>
+      <c r="AB78" s="209"/>
+      <c r="AC78" s="209"/>
+      <c r="AD78" s="209"/>
+      <c r="AE78" s="209"/>
+      <c r="AF78" s="209"/>
+      <c r="AG78" s="209"/>
+      <c r="AH78" s="209"/>
+      <c r="AI78" s="209"/>
+      <c r="AJ78" s="209"/>
+      <c r="AK78" s="209"/>
     </row>
     <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="8" t="s">
@@ -11413,21 +11421,21 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.1640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="22" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="22" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" style="22"/>
-    <col min="11" max="11" width="10.5" style="22" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9.1640625" style="22"/>
     <col min="15" max="15" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="9.1640625" style="22"/>
-    <col min="19" max="19" width="10.5" style="22" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" style="22" customWidth="1"/>
     <col min="20" max="22" width="9.1640625" style="22"/>
     <col min="23" max="23" width="10.6640625" style="22" customWidth="1"/>
     <col min="24" max="16384" width="9.1640625" style="22"/>
@@ -15900,7 +15908,9 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="U13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:AI22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18705,140 +18715,140 @@
         <v>367</v>
       </c>
       <c r="B22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="C22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="D22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="E22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="F22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="G22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="H22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="I22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="J22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="K22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="L22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="M22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="N22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="O22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="P22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="Q22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="R22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="S22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="T22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="U22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="V22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="W22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="X22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="Y22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="Z22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AA22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AB22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AC22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AD22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AE22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AF22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AG22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AH22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AI22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
     </row>
   </sheetData>
@@ -18853,7 +18863,9 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="U10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:AI22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21658,140 +21670,140 @@
         <v>367</v>
       </c>
       <c r="B22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="C22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="D22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="E22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="F22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="G22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="H22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="I22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="J22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="K22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="L22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="M22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="N22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="O22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="P22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="Q22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="R22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="S22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="T22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="U22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="V22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="W22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="X22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="Y22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="Z22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AA22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AB22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AC22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AD22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AE22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AF22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AG22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AH22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AI22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/OK/web-app/BCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shelley\Dropbox (Energy Innovation)\PC (2)\Documents\GitHub_Repositories\eps-us\InputData\web-app\BCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9334759-4086-8F4F-A326-719A668B7D10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8A7001-1A9D-42BC-A0B1-892F751D4320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="25880" windowHeight="11360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15345" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="BCF-BpEIEOU" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="gal_per_barrel">About!$A$63</definedName>
+    <definedName name="gal_per_barrel">About!$A$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="424">
   <si>
     <t>(from physical units to million Btu)</t>
   </si>
@@ -2200,9 +2200,6 @@
     <t>miles per gallon</t>
   </si>
   <si>
-    <t>million barrels</t>
-  </si>
-  <si>
     <t>Small Fuel Output Units</t>
   </si>
   <si>
@@ -2362,9 +2359,6 @@
     <t>crude oil, heavy fuel oil</t>
   </si>
   <si>
-    <t>barrels</t>
-  </si>
-  <si>
     <t>LPG/propane/butane</t>
   </si>
   <si>
@@ -2458,7 +2452,16 @@
     <t>GREET1 2019</t>
   </si>
   <si>
-    <t>Oklahoma</t>
+    <t>Barrels of oil has been used across petroleum fuels to provide a more standardized unit, instead of converting from</t>
+  </si>
+  <si>
+    <t>BTU to barrel of each equivalent fuel.</t>
+  </si>
+  <si>
+    <t>million barrels of oil</t>
+  </si>
+  <si>
+    <t>barrels of oil</t>
   </si>
 </sst>
 </file>
@@ -3483,7 +3486,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3882,7 +3885,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4316,363 +4318,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="37.36328125" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="3" max="3" width="39.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C1" s="208">
-        <v>44374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="196" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C6" s="202"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="196" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C13" s="202"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="198" t="s">
+        <v>331</v>
+      </c>
+      <c r="B40" s="199"/>
+    </row>
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="203" t="s">
+        <v>349</v>
+      </c>
+      <c r="B41" s="203" t="s">
+        <v>350</v>
+      </c>
+      <c r="C41" s="204" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="201" t="s">
+        <v>392</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="197" t="s">
+        <v>324</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="197" t="s">
+        <v>366</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="201" t="s">
+        <v>387</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="201" t="s">
+        <v>389</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="201" t="s">
+        <v>356</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C47" s="204" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="201"/>
+    </row>
+    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="198" t="s">
+        <v>336</v>
+      </c>
+      <c r="B49" s="199"/>
+    </row>
+    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="203" t="s">
+        <v>349</v>
+      </c>
+      <c r="B50" s="203" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="201" t="s">
+        <v>392</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="197" t="s">
+        <v>324</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="197" t="s">
+        <v>366</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="201" t="s">
+        <v>391</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="201" t="s">
+        <v>388</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="201" t="s">
+        <v>354</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="198" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="198" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="198" t="s">
-        <v>331</v>
-      </c>
-      <c r="B37" s="199"/>
-    </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="203" t="s">
-        <v>350</v>
-      </c>
-      <c r="B38" s="203" t="s">
-        <v>351</v>
-      </c>
-      <c r="C38" s="204" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="201" t="s">
-        <v>394</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="197" t="s">
-        <v>324</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="197" t="s">
-        <v>367</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42" s="201" t="s">
-        <v>388</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="201" t="s">
-        <v>391</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="201" t="s">
+    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C44" s="204" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="201"/>
-    </row>
-    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="198" t="s">
-        <v>337</v>
-      </c>
-      <c r="B46" s="199"/>
-    </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="203" t="s">
-        <v>350</v>
-      </c>
-      <c r="B47" s="203" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="201" t="s">
-        <v>394</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="197" t="s">
-        <v>324</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="197" t="s">
-        <v>367</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A51" s="201" t="s">
-        <v>393</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="201" t="s">
-        <v>389</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="201" t="s">
-        <v>355</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="198" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="198" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="196" t="s">
+    </row>
+    <row r="63" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="196" t="s">
         <v>316</v>
       </c>
-      <c r="B62" s="202"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="200">
+      <c r="B65" s="202"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="200">
         <v>42</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B66" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
         <f>3.142*10^6</f>
         <v>3142000</v>
       </c>
-      <c r="B64" t="s">
-        <v>340</v>
+      <c r="B67" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -4686,23 +4693,23 @@
   <dimension ref="A1:AK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C32" sqref="C32"/>
       <selection pane="topRight" activeCell="C32" sqref="C32"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="7" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="7"/>
+    <col min="1" max="1" width="20.81640625" style="7" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.08984375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C1" s="16">
         <v>2017</v>
@@ -4807,24 +4814,24 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="20" t="s">
         <v>121</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="20" t="s">
         <v>120</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -4832,29 +4839,29 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="20" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="20" t="s">
         <v>117</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>116</v>
       </c>
@@ -4862,12 +4869,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
         <v>2</v>
       </c>
@@ -4974,10 +4981,10 @@
         <v>2</v>
       </c>
       <c r="AK12" s="17" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
@@ -5087,17 +5094,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>114</v>
       </c>
@@ -5210,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>113</v>
       </c>
@@ -5323,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>112</v>
       </c>
@@ -5436,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>111</v>
       </c>
@@ -5549,7 +5556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>110</v>
       </c>
@@ -5662,7 +5669,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>109</v>
       </c>
@@ -5775,7 +5782,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>108</v>
       </c>
@@ -5888,7 +5895,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>107</v>
       </c>
@@ -6001,7 +6008,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>106</v>
       </c>
@@ -6114,7 +6121,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>105</v>
       </c>
@@ -6227,7 +6234,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>104</v>
       </c>
@@ -6340,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>103</v>
       </c>
@@ -6453,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>102</v>
       </c>
@@ -6566,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>100</v>
       </c>
@@ -6679,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>99</v>
       </c>
@@ -6792,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>98</v>
       </c>
@@ -6905,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>97</v>
       </c>
@@ -7018,12 +7025,12 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C33" s="14">
         <v>5.0566430000000002</v>
@@ -7131,7 +7138,7 @@
         <v>-2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>95</v>
       </c>
@@ -7244,12 +7251,12 @@
         <v>-2.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C35" s="14">
         <v>5.2222799999999996</v>
@@ -7357,12 +7364,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C36" s="14">
         <v>5.2222799999999996</v>
@@ -7470,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>94</v>
       </c>
@@ -7583,7 +7590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>93</v>
       </c>
@@ -7696,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>92</v>
       </c>
@@ -7809,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>91</v>
       </c>
@@ -7922,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>90</v>
       </c>
@@ -8035,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>89</v>
       </c>
@@ -8148,7 +8155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>88</v>
       </c>
@@ -8261,7 +8268,7 @@
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>87</v>
       </c>
@@ -8374,7 +8381,7 @@
         <v>-4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>86</v>
       </c>
@@ -8487,7 +8494,7 @@
         <v>-3.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>85</v>
       </c>
@@ -8600,12 +8607,12 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>84</v>
       </c>
@@ -8718,7 +8725,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>83</v>
       </c>
@@ -8831,7 +8838,7 @@
         <v>-3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>82</v>
       </c>
@@ -8944,7 +8951,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>81</v>
       </c>
@@ -9057,12 +9064,12 @@
         <v>-2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>80</v>
       </c>
@@ -9175,7 +9182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>79</v>
       </c>
@@ -9288,7 +9295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>78</v>
       </c>
@@ -9401,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>77</v>
       </c>
@@ -9514,7 +9521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>76</v>
       </c>
@@ -9627,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>75</v>
       </c>
@@ -9740,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>74</v>
       </c>
@@ -9853,12 +9860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>73</v>
       </c>
@@ -9971,7 +9978,7 @@
         <v>-1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>72</v>
       </c>
@@ -10084,7 +10091,7 @@
         <v>-1.0139999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>71</v>
       </c>
@@ -10197,7 +10204,7 @@
         <v>-2.1699999999999999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>70</v>
       </c>
@@ -10310,7 +10317,7 @@
         <v>2.8499999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>69</v>
       </c>
@@ -10423,7 +10430,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>68</v>
       </c>
@@ -10536,7 +10543,7 @@
         <v>-5.5000000000000002E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>67</v>
       </c>
@@ -10649,7 +10656,7 @@
         <v>-9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>66</v>
       </c>
@@ -10762,7 +10769,7 @@
         <v>2.5799999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>65</v>
       </c>
@@ -10875,7 +10882,7 @@
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>64</v>
       </c>
@@ -10988,7 +10995,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>63</v>
       </c>
@@ -11101,7 +11108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>62</v>
       </c>
@@ -11214,7 +11221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>61</v>
       </c>
@@ -11327,80 +11334,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="209" t="s">
+    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="208" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="209"/>
-      <c r="D78" s="209"/>
-      <c r="E78" s="209"/>
-      <c r="F78" s="209"/>
-      <c r="G78" s="209"/>
-      <c r="H78" s="209"/>
-      <c r="I78" s="209"/>
-      <c r="J78" s="209"/>
-      <c r="K78" s="209"/>
-      <c r="L78" s="209"/>
-      <c r="M78" s="209"/>
-      <c r="N78" s="209"/>
-      <c r="O78" s="209"/>
-      <c r="P78" s="209"/>
-      <c r="Q78" s="209"/>
-      <c r="R78" s="209"/>
-      <c r="S78" s="209"/>
-      <c r="T78" s="209"/>
-      <c r="U78" s="209"/>
-      <c r="V78" s="209"/>
-      <c r="W78" s="209"/>
-      <c r="X78" s="209"/>
-      <c r="Y78" s="209"/>
-      <c r="Z78" s="209"/>
-      <c r="AA78" s="209"/>
-      <c r="AB78" s="209"/>
-      <c r="AC78" s="209"/>
-      <c r="AD78" s="209"/>
-      <c r="AE78" s="209"/>
-      <c r="AF78" s="209"/>
-      <c r="AG78" s="209"/>
-      <c r="AH78" s="209"/>
-      <c r="AI78" s="209"/>
-      <c r="AJ78" s="209"/>
-      <c r="AK78" s="209"/>
-    </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="208"/>
+      <c r="D78" s="208"/>
+      <c r="E78" s="208"/>
+      <c r="F78" s="208"/>
+      <c r="G78" s="208"/>
+      <c r="H78" s="208"/>
+      <c r="I78" s="208"/>
+      <c r="J78" s="208"/>
+      <c r="K78" s="208"/>
+      <c r="L78" s="208"/>
+      <c r="M78" s="208"/>
+      <c r="N78" s="208"/>
+      <c r="O78" s="208"/>
+      <c r="P78" s="208"/>
+      <c r="Q78" s="208"/>
+      <c r="R78" s="208"/>
+      <c r="S78" s="208"/>
+      <c r="T78" s="208"/>
+      <c r="U78" s="208"/>
+      <c r="V78" s="208"/>
+      <c r="W78" s="208"/>
+      <c r="X78" s="208"/>
+      <c r="Y78" s="208"/>
+      <c r="Z78" s="208"/>
+      <c r="AA78" s="208"/>
+      <c r="AB78" s="208"/>
+      <c r="AC78" s="208"/>
+      <c r="AD78" s="208"/>
+      <c r="AE78" s="208"/>
+      <c r="AF78" s="208"/>
+      <c r="AG78" s="208"/>
+      <c r="AH78" s="208"/>
+      <c r="AI78" s="208"/>
+      <c r="AJ78" s="208"/>
+      <c r="AK78" s="208"/>
+    </row>
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -11418,40 +11425,40 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="22"/>
-    <col min="11" max="11" width="10.33203125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1640625" style="22"/>
-    <col min="15" max="15" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.1640625" style="22"/>
-    <col min="19" max="19" width="10.33203125" style="22" customWidth="1"/>
-    <col min="20" max="22" width="9.1640625" style="22"/>
-    <col min="23" max="23" width="10.6640625" style="22" customWidth="1"/>
-    <col min="24" max="16384" width="9.1640625" style="22"/>
+    <col min="1" max="1" width="33.08984375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="22"/>
+    <col min="11" max="11" width="10.36328125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.08984375" style="22"/>
+    <col min="15" max="15" width="12.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.08984375" style="22"/>
+    <col min="19" max="19" width="10.36328125" style="22" customWidth="1"/>
+    <col min="20" max="22" width="9.08984375" style="22"/>
+    <col min="23" max="23" width="10.7265625" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="9.08984375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>126</v>
       </c>
@@ -11474,7 +11481,7 @@
       </c>
       <c r="I3" s="29"/>
     </row>
-    <row r="4" spans="1:23" ht="29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A4" s="30"/>
       <c r="B4" s="31" t="s">
         <v>302</v>
@@ -11499,7 +11506,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>137</v>
       </c>
@@ -11516,7 +11523,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="40"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>139</v>
       </c>
@@ -11541,7 +11548,7 @@
       <c r="T6" s="47"/>
       <c r="V6" s="47"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
         <v>142</v>
       </c>
@@ -11578,7 +11585,7 @@
       <c r="V7" s="55"/>
       <c r="W7" s="55"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
         <v>143</v>
       </c>
@@ -11615,7 +11622,7 @@
       <c r="V8" s="55"/>
       <c r="W8" s="55"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
         <v>144</v>
       </c>
@@ -11652,7 +11659,7 @@
       <c r="V9" s="55"/>
       <c r="W9" s="55"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="48" t="s">
         <v>145</v>
       </c>
@@ -11685,7 +11692,7 @@
       <c r="V10" s="55"/>
       <c r="W10" s="55"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="48" t="s">
         <v>146</v>
       </c>
@@ -11726,7 +11733,7 @@
       <c r="V11" s="55"/>
       <c r="W11" s="55"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="48" t="s">
         <v>147</v>
       </c>
@@ -11763,7 +11770,7 @@
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>148</v>
       </c>
@@ -11792,7 +11799,7 @@
         <v>0.93726057101554028</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>149</v>
       </c>
@@ -11821,7 +11828,7 @@
         <v>0.93726057101554017</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="48" t="s">
         <v>150</v>
       </c>
@@ -11859,7 +11866,7 @@
       <c r="V15" s="65"/>
       <c r="W15" s="61"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="48" t="s">
         <v>151</v>
       </c>
@@ -11893,7 +11900,7 @@
       <c r="V16" s="65"/>
       <c r="W16" s="61"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="48" t="s">
         <v>152</v>
       </c>
@@ -11931,7 +11938,7 @@
       <c r="V17" s="65"/>
       <c r="W17" s="61"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="48" t="s">
         <v>153</v>
       </c>
@@ -11965,7 +11972,7 @@
       <c r="V18" s="65"/>
       <c r="W18" s="61"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="48" t="s">
         <v>154</v>
       </c>
@@ -11999,7 +12006,7 @@
       <c r="M19" s="65"/>
       <c r="N19" s="61"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="67" t="s">
         <v>303</v>
       </c>
@@ -12030,9 +12037,9 @@
       <c r="O20" s="55"/>
       <c r="W20" s="61"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="68" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B21" s="49">
         <v>129487.84757606639</v>
@@ -12057,7 +12064,7 @@
       </c>
       <c r="I21" s="54"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="48" t="s">
         <v>155</v>
       </c>
@@ -12086,7 +12093,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="48" t="s">
         <v>156</v>
       </c>
@@ -12115,7 +12122,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="48" t="s">
         <v>157</v>
       </c>
@@ -12144,9 +12151,9 @@
         <v>0.93476175247841387</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="70" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B25" s="49">
         <v>118237.434842673</v>
@@ -12173,7 +12180,7 @@
         <v>0.93404711473172097</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="71" t="s">
         <v>158</v>
       </c>
@@ -12202,7 +12209,7 @@
         <v>0.93500003751584637</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="71" t="s">
         <v>159</v>
       </c>
@@ -12231,7 +12238,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="71" t="s">
         <v>160</v>
       </c>
@@ -12261,7 +12268,7 @@
       </c>
       <c r="J28" s="73"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="71" t="s">
         <v>161</v>
       </c>
@@ -12290,7 +12297,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="71" t="s">
         <v>162</v>
       </c>
@@ -12319,7 +12326,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="71" t="s">
         <v>163</v>
       </c>
@@ -12349,7 +12356,7 @@
       </c>
       <c r="J31" s="73"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="71" t="s">
         <v>164</v>
       </c>
@@ -12378,7 +12385,7 @@
         <v>0.90299302022950434</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="71" t="s">
         <v>165</v>
       </c>
@@ -12408,7 +12415,7 @@
       </c>
       <c r="J33" s="73"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="71" t="s">
         <v>166</v>
       </c>
@@ -12437,7 +12444,7 @@
         <v>0.92867915675168411</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="71" t="s">
         <v>167</v>
       </c>
@@ -12467,7 +12474,7 @@
       </c>
       <c r="J35" s="73"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="71" t="s">
         <v>168</v>
       </c>
@@ -12497,7 +12504,7 @@
       </c>
       <c r="J36" s="73"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="71" t="s">
         <v>169</v>
       </c>
@@ -12527,7 +12534,7 @@
       </c>
       <c r="J37" s="73"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="71" t="s">
         <v>170</v>
       </c>
@@ -12557,7 +12564,7 @@
       </c>
       <c r="J38" s="73"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="71" t="s">
         <v>171</v>
       </c>
@@ -12588,7 +12595,7 @@
       <c r="J39" s="73"/>
       <c r="K39" s="73"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="71" t="s">
         <v>172</v>
       </c>
@@ -12619,7 +12626,7 @@
       <c r="J40" s="73"/>
       <c r="K40" s="73"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="71" t="s">
         <v>173</v>
       </c>
@@ -12649,7 +12656,7 @@
       </c>
       <c r="K41" s="73"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="70" t="s">
         <v>174</v>
       </c>
@@ -12679,7 +12686,7 @@
       </c>
       <c r="K42" s="73"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="70" t="s">
         <v>175</v>
       </c>
@@ -12709,7 +12716,7 @@
       </c>
       <c r="K43" s="73"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="71" t="s">
         <v>176</v>
       </c>
@@ -12739,7 +12746,7 @@
       </c>
       <c r="K44" s="73"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>177</v>
       </c>
@@ -12768,7 +12775,7 @@
         <v>0.93361506882395562</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="71" t="s">
         <v>178</v>
       </c>
@@ -12798,9 +12805,9 @@
       </c>
       <c r="K46" s="73"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="48" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B47" s="49">
         <v>112060.7</v>
@@ -12827,7 +12834,7 @@
         <v>0.93361506882395551</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="48" t="s">
         <v>179</v>
       </c>
@@ -12856,7 +12863,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="48" t="s">
         <v>180</v>
       </c>
@@ -12886,7 +12893,7 @@
       </c>
       <c r="J49" s="73"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="48" t="s">
         <v>181</v>
       </c>
@@ -12916,7 +12923,7 @@
       </c>
       <c r="J50" s="73"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="48" t="s">
         <v>182</v>
       </c>
@@ -12946,7 +12953,7 @@
       </c>
       <c r="J51" s="73"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="48" t="s">
         <v>183</v>
       </c>
@@ -12976,7 +12983,7 @@
       </c>
       <c r="J52" s="73"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="48" t="s">
         <v>184</v>
       </c>
@@ -13006,7 +13013,7 @@
       </c>
       <c r="J53" s="73"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="48" t="s">
         <v>185</v>
       </c>
@@ -13036,7 +13043,7 @@
       </c>
       <c r="J54" s="73"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="48" t="s">
         <v>186</v>
       </c>
@@ -13066,7 +13073,7 @@
       </c>
       <c r="J55" s="73"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="67" t="s">
         <v>187</v>
       </c>
@@ -13095,7 +13102,7 @@
         <v>0.92157077225989936</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="48" t="s">
         <v>188</v>
       </c>
@@ -13122,7 +13129,7 @@
         <v>0.92932939503336609</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="41" t="s">
         <v>189</v>
       </c>
@@ -13151,7 +13158,7 @@
         <v>0.93722267739953979</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="48" t="s">
         <v>191</v>
       </c>
@@ -13174,7 +13181,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="67" t="s">
         <v>194</v>
       </c>
@@ -13203,7 +13210,7 @@
         <v>0.90266299357208446</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="48" t="s">
         <v>195</v>
       </c>
@@ -13233,7 +13240,7 @@
       </c>
       <c r="L61" s="47"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="48" t="s">
         <v>196</v>
       </c>
@@ -13262,7 +13269,7 @@
         <v>0.84548104956268222</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="71" t="s">
         <v>197</v>
       </c>
@@ -13283,7 +13290,7 @@
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="41" t="s">
         <v>190</v>
       </c>
@@ -13313,7 +13320,7 @@
       </c>
       <c r="K64" s="47"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="67" t="s">
         <v>198</v>
       </c>
@@ -13334,7 +13341,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="68" t="s">
         <v>200</v>
       </c>
@@ -13360,7 +13367,7 @@
       <c r="I66" s="94"/>
       <c r="K66" s="95"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="68" t="s">
         <v>201</v>
       </c>
@@ -13388,7 +13395,7 @@
       </c>
       <c r="K67" s="95"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="68" t="s">
         <v>202</v>
       </c>
@@ -13416,7 +13423,7 @@
       </c>
       <c r="K68" s="95"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="68" t="s">
         <v>203</v>
       </c>
@@ -13444,7 +13451,7 @@
       </c>
       <c r="K69" s="95"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="68" t="s">
         <v>204</v>
       </c>
@@ -13473,7 +13480,7 @@
       <c r="K70" s="95"/>
       <c r="M70" s="73"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="71" t="s">
         <v>205</v>
       </c>
@@ -13502,7 +13509,7 @@
       <c r="K71" s="95"/>
       <c r="L71" s="95"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="70" t="s">
         <v>206</v>
       </c>
@@ -13530,7 +13537,7 @@
       </c>
       <c r="K72" s="95"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="48" t="s">
         <v>207</v>
       </c>
@@ -13557,7 +13564,7 @@
         <v>0.94242199100000001</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="48" t="s">
         <v>208</v>
       </c>
@@ -13585,9 +13592,9 @@
       </c>
       <c r="K74" s="97"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="48" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B75" s="49">
         <v>28385750.368920002</v>
@@ -13613,7 +13620,7 @@
       </c>
       <c r="K75" s="97"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="48" t="s">
         <v>209</v>
       </c>
@@ -13640,7 +13647,7 @@
         <v>0.93173565722585328</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="70" t="s">
         <v>210</v>
       </c>
@@ -13669,7 +13676,7 @@
       <c r="J77" s="55"/>
       <c r="K77" s="98"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="71" t="s">
         <v>211</v>
       </c>
@@ -13697,7 +13704,7 @@
       </c>
       <c r="K78" s="97"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="71" t="s">
         <v>212</v>
       </c>
@@ -13724,7 +13731,7 @@
         <v>0.93680161201685286</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="71" t="s">
         <v>213</v>
       </c>
@@ -13751,7 +13758,7 @@
         <v>0.93292760238366934</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="71" t="s">
         <v>214</v>
       </c>
@@ -13778,9 +13785,9 @@
         <v>0.96554227633195577</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="71" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B82" s="49">
         <v>15929000</v>
@@ -13805,7 +13812,7 @@
         <v>0.93359512366662756</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="99" t="s">
         <v>215</v>
       </c>
@@ -13828,7 +13835,7 @@
       </c>
       <c r="I83" s="102"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="103" t="s">
         <v>216</v>
       </c>
@@ -13851,7 +13858,7 @@
         <v>0.85292563033160751</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="103" t="s">
         <v>217</v>
       </c>
@@ -13874,7 +13881,7 @@
         <v>0.88047037071579148</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="103" t="s">
         <v>218</v>
       </c>
@@ -13901,7 +13908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="106" t="s">
         <v>219</v>
       </c>
@@ -13928,7 +13935,7 @@
         <v>0.90447216306662592</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="107" t="s">
         <v>220</v>
       </c>
@@ -13955,7 +13962,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="73" t="s">
         <v>221</v>
       </c>
@@ -13982,7 +13989,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
         <v>222</v>
       </c>
@@ -14009,7 +14016,7 @@
         <v>0.8252427184466018</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="73" t="s">
         <v>223</v>
       </c>
@@ -14036,9 +14043,9 @@
         <v>0.87681159420289856</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="118" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B92" s="119">
         <v>152370.90134048002</v>
@@ -14070,9 +14077,9 @@
       <c r="M92" s="121"/>
       <c r="N92" s="122"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="123" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B93" s="124">
         <v>144230</v>
@@ -14096,12 +14103,12 @@
       <c r="M93" s="125"/>
       <c r="N93" s="126"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="127"/>
       <c r="B94" s="128"/>
       <c r="N94" s="129"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="127" t="s">
         <v>224</v>
       </c>
@@ -14116,7 +14123,7 @@
       <c r="M95" s="73"/>
       <c r="N95" s="129"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="130" t="s">
         <v>225</v>
       </c>
@@ -14134,7 +14141,7 @@
       <c r="M96" s="133"/>
       <c r="N96" s="134"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="135" t="s">
         <v>226</v>
       </c>
@@ -14178,7 +14185,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="136" t="s">
         <v>233</v>
       </c>
@@ -14222,7 +14229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="137" t="s">
         <v>234</v>
       </c>
@@ -14266,7 +14273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="123" t="s">
         <v>235</v>
       </c>
@@ -14310,7 +14317,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="127" t="s">
         <v>236</v>
       </c>
@@ -14354,13 +14361,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="127"/>
       <c r="B102" s="128"/>
       <c r="F102" s="73"/>
       <c r="G102" s="129"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="127" t="s">
         <v>237</v>
       </c>
@@ -14369,7 +14376,7 @@
       <c r="F103" s="73"/>
       <c r="G103" s="129"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="127" t="s">
         <v>238</v>
       </c>
@@ -14392,7 +14399,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="130" t="s">
         <v>233</v>
       </c>
@@ -14413,7 +14420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="22" t="s">
         <v>242</v>
       </c>
@@ -14436,7 +14443,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
         <v>243</v>
       </c>
@@ -14459,7 +14466,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="118" t="s">
         <v>244</v>
       </c>
@@ -14482,7 +14489,7 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="127" t="s">
         <v>245</v>
       </c>
@@ -14505,7 +14512,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="127" t="s">
         <v>246</v>
       </c>
@@ -14528,17 +14535,17 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="127"/>
       <c r="B111" s="146"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="130" t="s">
         <v>247</v>
       </c>
       <c r="B112" s="147"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="22" t="s">
         <v>248</v>
       </c>
@@ -14546,7 +14553,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="148" t="s">
         <v>249</v>
       </c>
@@ -14556,7 +14563,7 @@
       <c r="C114" s="73"/>
       <c r="D114" s="73"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="73" t="s">
         <v>250</v>
       </c>
@@ -14564,7 +14571,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="22" t="s">
         <v>251</v>
       </c>
@@ -14577,7 +14584,7 @@
       <c r="R116" s="151"/>
       <c r="V116" s="151"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="22" t="s">
         <v>252</v>
       </c>
@@ -14590,7 +14597,7 @@
       <c r="R117" s="154"/>
       <c r="V117" s="154"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B118" s="155"/>
       <c r="C118" s="156"/>
       <c r="D118" s="157"/>
@@ -14610,7 +14617,7 @@
       <c r="W118" s="158"/>
       <c r="X118" s="157"/>
     </row>
-    <row r="119" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="73" t="s">
         <v>253</v>
       </c>
@@ -14633,7 +14640,7 @@
       <c r="W119" s="160"/>
       <c r="X119" s="161"/>
     </row>
-    <row r="120" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B120" s="162"/>
       <c r="C120" s="163"/>
       <c r="D120" s="164"/>
@@ -14653,7 +14660,7 @@
       <c r="W120" s="163"/>
       <c r="X120" s="164"/>
     </row>
-    <row r="121" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B121" s="162">
         <v>10</v>
       </c>
@@ -14685,7 +14692,7 @@
       <c r="W121" s="163"/>
       <c r="X121" s="164"/>
     </row>
-    <row r="122" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B122" s="162">
         <v>10</v>
       </c>
@@ -14717,7 +14724,7 @@
       <c r="W122" s="163"/>
       <c r="X122" s="164"/>
     </row>
-    <row r="123" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B123" s="162" t="s">
         <v>254</v>
       </c>
@@ -14773,7 +14780,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B124" s="162">
         <v>1990</v>
       </c>
@@ -14829,7 +14836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B125" s="162">
         <v>1995</v>
       </c>
@@ -14885,7 +14892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B126" s="168">
         <v>2000</v>
       </c>
@@ -14941,7 +14948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B127" s="22">
         <v>2005</v>
       </c>
@@ -14997,7 +15004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="148"/>
       <c r="B128" s="22">
         <v>2010</v>
@@ -15054,7 +15061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A129" s="171"/>
       <c r="B129" s="172">
         <v>2015</v>
@@ -15112,7 +15119,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A130" s="175"/>
       <c r="B130" s="176">
         <v>2017</v>
@@ -15170,7 +15177,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A131" s="175"/>
       <c r="B131" s="179">
         <v>2020</v>
@@ -15186,7 +15193,7 @@
       <c r="G131" s="174"/>
       <c r="H131" s="174"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A132" s="175"/>
       <c r="B132" s="179"/>
       <c r="C132" s="179"/>
@@ -15196,7 +15203,7 @@
       <c r="G132" s="174"/>
       <c r="H132" s="174"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A133" s="175" t="s">
         <v>262</v>
       </c>
@@ -15208,7 +15215,7 @@
       <c r="G133" s="174"/>
       <c r="H133" s="174"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A134" s="181" t="s">
         <v>263</v>
       </c>
@@ -15230,7 +15237,7 @@
       <c r="G134" s="174"/>
       <c r="H134" s="174"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A135" s="174" t="s">
         <v>269</v>
       </c>
@@ -15252,7 +15259,7 @@
       <c r="G135" s="174"/>
       <c r="H135" s="174"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A136" s="171" t="s">
         <v>270</v>
       </c>
@@ -15274,7 +15281,7 @@
       <c r="G136" s="174"/>
       <c r="H136" s="174"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A137" s="175" t="s">
         <v>271</v>
       </c>
@@ -15296,7 +15303,7 @@
       <c r="G137" s="174"/>
       <c r="H137" s="174"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A138" s="175" t="s">
         <v>272</v>
       </c>
@@ -15318,7 +15325,7 @@
       <c r="G138" s="174"/>
       <c r="H138" s="174"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A139" s="175" t="s">
         <v>273</v>
       </c>
@@ -15340,7 +15347,7 @@
       <c r="G139" s="174"/>
       <c r="H139" s="174"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A140" s="175"/>
       <c r="B140" s="163"/>
       <c r="C140" s="179"/>
@@ -15350,7 +15357,7 @@
       <c r="G140" s="174"/>
       <c r="H140" s="174"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A141" s="181" t="s">
         <v>274</v>
       </c>
@@ -15372,7 +15379,7 @@
       <c r="G141" s="174"/>
       <c r="H141" s="174"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A142" s="174" t="s">
         <v>280</v>
       </c>
@@ -15394,7 +15401,7 @@
       <c r="G142" s="174"/>
       <c r="H142" s="174"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A143" s="171" t="s">
         <v>281</v>
       </c>
@@ -15417,7 +15424,7 @@
       <c r="H143" s="172"/>
       <c r="I143" s="190"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A144" s="175" t="s">
         <v>282</v>
       </c>
@@ -15440,7 +15447,7 @@
       <c r="H144" s="176"/>
       <c r="I144" s="129"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="175" t="s">
         <v>283</v>
       </c>
@@ -15463,7 +15470,7 @@
       <c r="H145" s="176"/>
       <c r="I145" s="129"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="175" t="s">
         <v>284</v>
       </c>
@@ -15486,7 +15493,7 @@
       <c r="H146" s="176"/>
       <c r="I146" s="129"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="175"/>
       <c r="B147" s="179"/>
       <c r="C147" s="177"/>
@@ -15497,7 +15504,7 @@
       <c r="H147" s="176"/>
       <c r="I147" s="129"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="175" t="s">
         <v>285</v>
       </c>
@@ -15526,7 +15533,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="175" t="s">
         <v>294</v>
       </c>
@@ -15555,7 +15562,7 @@
         <v>2684519.5376862194</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="175" t="s">
         <v>295</v>
       </c>
@@ -15584,7 +15591,7 @@
         <v>2684.5195376862198</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="195" t="s">
         <v>296</v>
       </c>
@@ -15613,7 +15620,7 @@
         <v>2.6845195376862194</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="22" t="s">
         <v>297</v>
       </c>
@@ -15642,7 +15649,7 @@
         <v>745.69987157950538</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="22" t="s">
         <v>298</v>
       </c>
@@ -15671,7 +15678,7 @@
         <v>0.74569987157950535</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="22" t="s">
         <v>299</v>
       </c>
@@ -15700,7 +15707,7 @@
         <v>2544.4335839531336</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="22" t="s">
         <v>300</v>
       </c>
@@ -15729,7 +15736,7 @@
         <v>2.5444335839531337E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="22" t="s">
         <v>301</v>
       </c>
@@ -15758,29 +15765,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="B158" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="C158" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="B158" s="22" t="s">
+      <c r="D158" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="C158" s="22" t="s">
+      <c r="E158" s="22" t="s">
         <v>417</v>
       </c>
-      <c r="D158" s="22" t="s">
+      <c r="F158" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="E158" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="F158" s="22" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B159" s="22">
         <v>1</v>
@@ -15798,9 +15805,9 @@
         <v>1609340</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="22" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B160" s="22">
         <v>1E-3</v>
@@ -15818,9 +15825,9 @@
         <v>1609.34</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B161" s="22">
         <v>9.9999999999999995E-7</v>
@@ -15838,9 +15845,9 @@
         <v>1.60934</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B162" s="22">
         <v>3.2808398950131233E-3</v>
@@ -15858,9 +15865,9 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B163" s="22">
         <v>6.2137273664980671E-7</v>
@@ -15908,20 +15915,20 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView topLeftCell="U13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:AI22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B1" s="5">
         <v>2017</v>
@@ -16026,148 +16033,148 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="C2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="D2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="E2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="F2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="G2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="H2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="I2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="J2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="K2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="L2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="M2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="N2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="O2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="P2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Q2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="R2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="S2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="T2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="U2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="V2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="W2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="X2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Y2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Z2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AA2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AB2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AC2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AD2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AE2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AF2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AG2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AH2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AI2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>323</v>
       </c>
@@ -16308,7 +16315,7 @@
         <v>19887484000000</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>324</v>
       </c>
@@ -16449,9 +16456,9 @@
         <v>1036999999999999.9</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" ref="B5:AI5" si="0">10^12</f>
@@ -16590,224 +16597,224 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5">
-        <v>0</v>
-      </c>
-      <c r="V7" s="5">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
@@ -16911,7 +16918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>325</v>
       </c>
@@ -17052,855 +17059,855 @@
         <v>17906000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B10" s="5">
-        <f>'AEO Table 73'!C32*10^12</f>
-        <v>5056643000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="C10" s="5">
-        <f>'AEO Table 73'!D32*10^12</f>
-        <v>5055260000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="D10" s="5">
-        <f>'AEO Table 73'!E32*10^12</f>
-        <v>5055925000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="E10" s="5">
-        <f>'AEO Table 73'!F32*10^12</f>
-        <v>5056270000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="F10" s="5">
-        <f>'AEO Table 73'!G32*10^12</f>
-        <v>5055361000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="G10" s="5">
-        <f>'AEO Table 73'!H32*10^12</f>
-        <v>5053336000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="H10" s="5">
-        <f>'AEO Table 73'!I32*10^12</f>
-        <v>5050816000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="I10" s="5">
-        <f>'AEO Table 73'!J32*10^12</f>
-        <v>5050002000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="J10" s="5">
-        <f>'AEO Table 73'!K32*10^12</f>
-        <v>5049479000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="K10" s="5">
-        <f>'AEO Table 73'!L32*10^12</f>
-        <v>5049067000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="L10" s="5">
-        <f>'AEO Table 73'!M32*10^12</f>
-        <v>5048620000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="M10" s="5">
-        <f>'AEO Table 73'!N32*10^12</f>
-        <v>5048186000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="N10" s="5">
-        <f>'AEO Table 73'!O32*10^12</f>
-        <v>5047752000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="O10" s="5">
-        <f>'AEO Table 73'!P32*10^12</f>
-        <v>5047827000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="P10" s="5">
-        <f>'AEO Table 73'!Q32*10^12</f>
-        <v>5047112000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Q10" s="5">
-        <f>'AEO Table 73'!R32*10^12</f>
-        <v>5046712000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="R10" s="5">
-        <f>'AEO Table 73'!S32*10^12</f>
-        <v>5046464000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="S10" s="5">
-        <f>'AEO Table 73'!T32*10^12</f>
-        <v>5045877000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="T10" s="5">
-        <f>'AEO Table 73'!U32*10^12</f>
-        <v>5045186000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="U10" s="5">
-        <f>'AEO Table 73'!V32*10^12</f>
-        <v>5044430000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="V10" s="5">
-        <f>'AEO Table 73'!W32*10^12</f>
-        <v>5043581000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="W10" s="5">
-        <f>'AEO Table 73'!X32*10^12</f>
-        <v>5042755000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="X10" s="5">
-        <f>'AEO Table 73'!Y32*10^12</f>
-        <v>5041688000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Y10" s="5">
-        <f>'AEO Table 73'!Z32*10^12</f>
-        <v>5040498000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Z10" s="5">
-        <f>'AEO Table 73'!AA32*10^12</f>
-        <v>5039160000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AA10" s="5">
-        <f>'AEO Table 73'!AB32*10^12</f>
-        <v>5037867000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AB10" s="5">
-        <f>'AEO Table 73'!AC32*10^12</f>
-        <v>5036224000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AC10" s="5">
-        <f>'AEO Table 73'!AD32*10^12</f>
-        <v>5034602000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AD10" s="5">
-        <f>'AEO Table 73'!AE32*10^12</f>
-        <v>5032873000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AE10" s="5">
-        <f>'AEO Table 73'!AF32*10^12</f>
-        <v>5030945000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AF10" s="5">
-        <f>'AEO Table 73'!AG32*10^12</f>
-        <v>5028548000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AG10" s="5">
-        <f>'AEO Table 73'!AH32*10^12</f>
-        <v>5025918000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AH10" s="5">
-        <f>'AEO Table 73'!AI32*10^12</f>
-        <v>5023038000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AI10" s="5">
-        <f>'AEO Table 73'!AJ32*10^12</f>
-        <v>5023036000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
       <c r="B11" s="5">
-        <f>'AEO Table 73'!C19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="C11" s="5">
-        <f>'AEO Table 73'!D19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="D11" s="5">
-        <f>'AEO Table 73'!E19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="E11" s="5">
-        <f>'AEO Table 73'!F19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="F11" s="5">
-        <f>'AEO Table 73'!G19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="G11" s="5">
-        <f>'AEO Table 73'!H19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="H11" s="5">
-        <f>'AEO Table 73'!I19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="I11" s="5">
-        <f>'AEO Table 73'!J19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="J11" s="5">
-        <f>'AEO Table 73'!K19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="K11" s="5">
-        <f>'AEO Table 73'!L19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="L11" s="5">
-        <f>'AEO Table 73'!M19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="M11" s="5">
-        <f>'AEO Table 73'!N19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="N11" s="5">
-        <f>'AEO Table 73'!O19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="O11" s="5">
-        <f>'AEO Table 73'!P19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="P11" s="5">
-        <f>'AEO Table 73'!Q19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Q11" s="5">
-        <f>'AEO Table 73'!R19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="R11" s="5">
-        <f>'AEO Table 73'!S19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="S11" s="5">
-        <f>'AEO Table 73'!T19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="T11" s="5">
-        <f>'AEO Table 73'!U19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="U11" s="5">
-        <f>'AEO Table 73'!V19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="V11" s="5">
-        <f>'AEO Table 73'!W19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="W11" s="5">
-        <f>'AEO Table 73'!X19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="X11" s="5">
-        <f>'AEO Table 73'!Y19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Y11" s="5">
-        <f>'AEO Table 73'!Z19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Z11" s="5">
-        <f>'AEO Table 73'!AA19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AA11" s="5">
-        <f>'AEO Table 73'!AB19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AB11" s="5">
-        <f>'AEO Table 73'!AC19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AC11" s="5">
-        <f>'AEO Table 73'!AD19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AD11" s="5">
-        <f>'AEO Table 73'!AE19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AE11" s="5">
-        <f>'AEO Table 73'!AF19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AF11" s="5">
-        <f>'AEO Table 73'!AG19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AG11" s="5">
-        <f>'AEO Table 73'!AH19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AH11" s="5">
-        <f>'AEO Table 73'!AI19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AI11" s="5">
-        <f>'AEO Table 73'!AJ19*10^12</f>
-        <v>5825000000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>328</v>
       </c>
       <c r="B12" s="5">
-        <f>'AEO Table 73'!C29*10^12</f>
-        <v>3997220000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="C12" s="5">
-        <f>'AEO Table 73'!D29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="D12" s="5">
-        <f>'AEO Table 73'!E29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="E12" s="5">
-        <f>'AEO Table 73'!F29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="F12" s="5">
-        <f>'AEO Table 73'!G29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="G12" s="5">
-        <f>'AEO Table 73'!H29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="H12" s="5">
-        <f>'AEO Table 73'!I29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="I12" s="5">
-        <f>'AEO Table 73'!J29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="J12" s="5">
-        <f>'AEO Table 73'!K29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="K12" s="5">
-        <f>'AEO Table 73'!L29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="L12" s="5">
-        <f>'AEO Table 73'!M29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="M12" s="5">
-        <f>'AEO Table 73'!N29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="N12" s="5">
-        <f>'AEO Table 73'!O29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="O12" s="5">
-        <f>'AEO Table 73'!P29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="P12" s="5">
-        <f>'AEO Table 73'!Q29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Q12" s="5">
-        <f>'AEO Table 73'!R29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="R12" s="5">
-        <f>'AEO Table 73'!S29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="S12" s="5">
-        <f>'AEO Table 73'!T29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="T12" s="5">
-        <f>'AEO Table 73'!U29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="U12" s="5">
-        <f>'AEO Table 73'!V29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="V12" s="5">
-        <f>'AEO Table 73'!W29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="W12" s="5">
-        <f>'AEO Table 73'!X29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="X12" s="5">
-        <f>'AEO Table 73'!Y29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Y12" s="5">
-        <f>'AEO Table 73'!Z29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Z12" s="5">
-        <f>'AEO Table 73'!AA29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AA12" s="5">
-        <f>'AEO Table 73'!AB29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AB12" s="5">
-        <f>'AEO Table 73'!AC29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AC12" s="5">
-        <f>'AEO Table 73'!AD29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AD12" s="5">
-        <f>'AEO Table 73'!AE29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AE12" s="5">
-        <f>'AEO Table 73'!AF29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AF12" s="5">
-        <f>'AEO Table 73'!AG29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AG12" s="5">
-        <f>'AEO Table 73'!AH29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AH12" s="5">
-        <f>'AEO Table 73'!AI29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AI12" s="5">
-        <f>'AEO Table 73'!AJ29*10^12</f>
-        <v>3989233000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B13" s="5">
-        <f>'AEO Table 73'!C18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="C13" s="5">
-        <f>'AEO Table 73'!D18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="D13" s="5">
-        <f>'AEO Table 73'!E18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="E13" s="5">
-        <f>'AEO Table 73'!F18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="F13" s="5">
-        <f>'AEO Table 73'!G18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="G13" s="5">
-        <f>'AEO Table 73'!H18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="H13" s="5">
-        <f>'AEO Table 73'!I18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="I13" s="5">
-        <f>'AEO Table 73'!J18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="J13" s="5">
-        <f>'AEO Table 73'!K18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="K13" s="5">
-        <f>'AEO Table 73'!L18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="L13" s="5">
-        <f>'AEO Table 73'!M18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="M13" s="5">
-        <f>'AEO Table 73'!N18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="N13" s="5">
-        <f>'AEO Table 73'!O18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="O13" s="5">
-        <f>'AEO Table 73'!P18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="P13" s="5">
-        <f>'AEO Table 73'!Q18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Q13" s="5">
-        <f>'AEO Table 73'!R18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="R13" s="5">
-        <f>'AEO Table 73'!S18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="S13" s="5">
-        <f>'AEO Table 73'!T18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="T13" s="5">
-        <f>'AEO Table 73'!U18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="U13" s="5">
-        <f>'AEO Table 73'!V18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="V13" s="5">
-        <f>'AEO Table 73'!W18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="W13" s="5">
-        <f>'AEO Table 73'!X18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="X13" s="5">
-        <f>'AEO Table 73'!Y18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Y13" s="5">
-        <f>'AEO Table 73'!Z18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Z13" s="5">
-        <f>'AEO Table 73'!AA18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AA13" s="5">
-        <f>'AEO Table 73'!AB18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AB13" s="5">
-        <f>'AEO Table 73'!AC18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AC13" s="5">
-        <f>'AEO Table 73'!AD18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AD13" s="5">
-        <f>'AEO Table 73'!AE18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AE13" s="5">
-        <f>'AEO Table 73'!AF18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AF13" s="5">
-        <f>'AEO Table 73'!AG18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AG13" s="5">
-        <f>'AEO Table 73'!AH18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AH13" s="5">
-        <f>'AEO Table 73'!AI18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AI13" s="5">
-        <f>'AEO Table 73'!AJ18*10^12</f>
-        <v>5359000000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B14" s="5">
-        <f>'AEO Table 73'!C30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="C14" s="5">
-        <f>'AEO Table 73'!D30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="D14" s="5">
-        <f>'AEO Table 73'!E30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="E14" s="5">
-        <f>'AEO Table 73'!F30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="F14" s="5">
-        <f>'AEO Table 73'!G30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="G14" s="5">
-        <f>'AEO Table 73'!H30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="H14" s="5">
-        <f>'AEO Table 73'!I30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="I14" s="5">
-        <f>'AEO Table 73'!J30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="J14" s="5">
-        <f>'AEO Table 73'!K30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="K14" s="5">
-        <f>'AEO Table 73'!L30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="L14" s="5">
-        <f>'AEO Table 73'!M30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="M14" s="5">
-        <f>'AEO Table 73'!N30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="N14" s="5">
-        <f>'AEO Table 73'!O30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="O14" s="5">
-        <f>'AEO Table 73'!P30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="P14" s="5">
-        <f>'AEO Table 73'!Q30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Q14" s="5">
-        <f>'AEO Table 73'!R30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="R14" s="5">
-        <f>'AEO Table 73'!S30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="S14" s="5">
-        <f>'AEO Table 73'!T30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="T14" s="5">
-        <f>'AEO Table 73'!U30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="U14" s="5">
-        <f>'AEO Table 73'!V30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="V14" s="5">
-        <f>'AEO Table 73'!W30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="W14" s="5">
-        <f>'AEO Table 73'!X30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="X14" s="5">
-        <f>'AEO Table 73'!Y30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Y14" s="5">
-        <f>'AEO Table 73'!Z30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Z14" s="5">
-        <f>'AEO Table 73'!AA30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AA14" s="5">
-        <f>'AEO Table 73'!AB30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AB14" s="5">
-        <f>'AEO Table 73'!AC30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AC14" s="5">
-        <f>'AEO Table 73'!AD30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AD14" s="5">
-        <f>'AEO Table 73'!AE30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AE14" s="5">
-        <f>'AEO Table 73'!AF30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AF14" s="5">
-        <f>'AEO Table 73'!AG30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AG14" s="5">
-        <f>'AEO Table 73'!AH30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AH14" s="5">
-        <f>'AEO Table 73'!AI30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AI14" s="5">
-        <f>'AEO Table 73'!AJ30*10^12</f>
-        <v>5670000000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="C15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="D15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="E15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="F15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="G15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="H15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="I15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="J15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="K15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="L15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="M15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="N15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="O15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="P15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Q15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="R15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="S15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="T15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="U15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="V15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="W15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="X15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Y15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Z15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AA15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AB15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AC15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AD15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AE15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AF15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AG15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AH15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AI15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
@@ -18005,7 +18012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>330</v>
       </c>
@@ -18146,291 +18153,291 @@
         <v>12992301971719.6</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="C18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="D18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="E18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="F18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="G18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="H18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="I18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="J18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="K18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="L18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="M18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="N18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="O18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="P18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="Q18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="R18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="S18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="T18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="U18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="V18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="W18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="X18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="Y18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="Z18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AA18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AB18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AC18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AD18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AE18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AF18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AG18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AH18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AI18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>368</v>
       </c>
-      <c r="B18" s="5">
-        <f>'AEO Table 73'!C48*10^12</f>
-        <v>5723000000000</v>
-      </c>
-      <c r="C18" s="5">
-        <f>'AEO Table 73'!D48*10^12</f>
-        <v>5719936000000</v>
-      </c>
-      <c r="D18" s="5">
-        <f>'AEO Table 73'!E48*10^12</f>
-        <v>5709374000000</v>
-      </c>
-      <c r="E18" s="5">
-        <f>'AEO Table 73'!F48*10^12</f>
-        <v>5702021000000</v>
-      </c>
-      <c r="F18" s="5">
-        <f>'AEO Table 73'!G48*10^12</f>
-        <v>5699036000000</v>
-      </c>
-      <c r="G18" s="5">
-        <f>'AEO Table 73'!H48*10^12</f>
-        <v>5702903000000</v>
-      </c>
-      <c r="H18" s="5">
-        <f>'AEO Table 73'!I48*10^12</f>
-        <v>5701469000000</v>
-      </c>
-      <c r="I18" s="5">
-        <f>'AEO Table 73'!J48*10^12</f>
-        <v>5697845000000</v>
-      </c>
-      <c r="J18" s="5">
-        <f>'AEO Table 73'!K48*10^12</f>
-        <v>5696569000000</v>
-      </c>
-      <c r="K18" s="5">
-        <f>'AEO Table 73'!L48*10^12</f>
-        <v>5695571000000</v>
-      </c>
-      <c r="L18" s="5">
-        <f>'AEO Table 73'!M48*10^12</f>
-        <v>5691691000000</v>
-      </c>
-      <c r="M18" s="5">
-        <f>'AEO Table 73'!N48*10^12</f>
-        <v>5689583000000</v>
-      </c>
-      <c r="N18" s="5">
-        <f>'AEO Table 73'!O48*10^12</f>
-        <v>5687317000000</v>
-      </c>
-      <c r="O18" s="5">
-        <f>'AEO Table 73'!P48*10^12</f>
-        <v>5686403000000</v>
-      </c>
-      <c r="P18" s="5">
-        <f>'AEO Table 73'!Q48*10^12</f>
-        <v>5685931000000</v>
-      </c>
-      <c r="Q18" s="5">
-        <f>'AEO Table 73'!R48*10^12</f>
-        <v>5686055000000</v>
-      </c>
-      <c r="R18" s="5">
-        <f>'AEO Table 73'!S48*10^12</f>
-        <v>5686259000000</v>
-      </c>
-      <c r="S18" s="5">
-        <f>'AEO Table 73'!T48*10^12</f>
-        <v>5685382000000</v>
-      </c>
-      <c r="T18" s="5">
-        <f>'AEO Table 73'!U48*10^12</f>
-        <v>5685214000000</v>
-      </c>
-      <c r="U18" s="5">
-        <f>'AEO Table 73'!V48*10^12</f>
-        <v>5685896000000</v>
-      </c>
-      <c r="V18" s="5">
-        <f>'AEO Table 73'!W48*10^12</f>
-        <v>5686885000000</v>
-      </c>
-      <c r="W18" s="5">
-        <f>'AEO Table 73'!X48*10^12</f>
-        <v>5687922000000</v>
-      </c>
-      <c r="X18" s="5">
-        <f>'AEO Table 73'!Y48*10^12</f>
-        <v>5690170000000</v>
-      </c>
-      <c r="Y18" s="5">
-        <f>'AEO Table 73'!Z48*10^12</f>
-        <v>5690964000000</v>
-      </c>
-      <c r="Z18" s="5">
-        <f>'AEO Table 73'!AA48*10^12</f>
-        <v>5689439000000</v>
-      </c>
-      <c r="AA18" s="5">
-        <f>'AEO Table 73'!AB48*10^12</f>
-        <v>5688754000000</v>
-      </c>
-      <c r="AB18" s="5">
-        <f>'AEO Table 73'!AC48*10^12</f>
-        <v>5686469000000</v>
-      </c>
-      <c r="AC18" s="5">
-        <f>'AEO Table 73'!AD48*10^12</f>
-        <v>5684444000000</v>
-      </c>
-      <c r="AD18" s="5">
-        <f>'AEO Table 73'!AE48*10^12</f>
-        <v>5683516000000</v>
-      </c>
-      <c r="AE18" s="5">
-        <f>'AEO Table 73'!AF48*10^12</f>
-        <v>5682888000000</v>
-      </c>
-      <c r="AF18" s="5">
-        <f>'AEO Table 73'!AG48*10^12</f>
-        <v>5681393000000</v>
-      </c>
-      <c r="AG18" s="5">
-        <f>'AEO Table 73'!AH48*10^12</f>
-        <v>5679274000000</v>
-      </c>
-      <c r="AH18" s="5">
-        <f>'AEO Table 73'!AI48*10^12</f>
-        <v>5678185000000</v>
-      </c>
-      <c r="AI18" s="5">
-        <f>'AEO Table 73'!AJ48*10^12</f>
-        <v>5676202000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="C19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="D19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="E19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="F19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="G19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="H19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="I19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="J19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="K19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="L19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="M19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="N19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="O19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="P19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="Q19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="R19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="S19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="T19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="U19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="V19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="W19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="X19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="Y19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="Z19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AA19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AB19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AC19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AD19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AE19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AF19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AG19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AH19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AI19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>369</v>
-      </c>
-      <c r="B19" s="5">
-        <f>'AEO Table 73'!C41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="C19" s="5">
-        <f>'AEO Table 73'!D41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="D19" s="5">
-        <f>'AEO Table 73'!E41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="E19" s="5">
-        <f>'AEO Table 73'!F41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="F19" s="5">
-        <f>'AEO Table 73'!G41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="G19" s="5">
-        <f>'AEO Table 73'!H41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="H19" s="5">
-        <f>'AEO Table 73'!I41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="I19" s="5">
-        <f>'AEO Table 73'!J41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="J19" s="5">
-        <f>'AEO Table 73'!K41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="K19" s="5">
-        <f>'AEO Table 73'!L41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="L19" s="5">
-        <f>'AEO Table 73'!M41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="M19" s="5">
-        <f>'AEO Table 73'!N41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="N19" s="5">
-        <f>'AEO Table 73'!O41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="O19" s="5">
-        <f>'AEO Table 73'!P41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="P19" s="5">
-        <f>'AEO Table 73'!Q41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="Q19" s="5">
-        <f>'AEO Table 73'!R41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="R19" s="5">
-        <f>'AEO Table 73'!S41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="S19" s="5">
-        <f>'AEO Table 73'!T41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="T19" s="5">
-        <f>'AEO Table 73'!U41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="U19" s="5">
-        <f>'AEO Table 73'!V41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="V19" s="5">
-        <f>'AEO Table 73'!W41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="W19" s="5">
-        <f>'AEO Table 73'!X41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="X19" s="5">
-        <f>'AEO Table 73'!Y41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="Y19" s="5">
-        <f>'AEO Table 73'!Z41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="Z19" s="5">
-        <f>'AEO Table 73'!AA41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="AA19" s="5">
-        <f>'AEO Table 73'!AB41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="AB19" s="5">
-        <f>'AEO Table 73'!AC41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="AC19" s="5">
-        <f>'AEO Table 73'!AD41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="AD19" s="5">
-        <f>'AEO Table 73'!AE41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="AE19" s="5">
-        <f>'AEO Table 73'!AF41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="AF19" s="5">
-        <f>'AEO Table 73'!AG41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="AG19" s="5">
-        <f>'AEO Table 73'!AH41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="AH19" s="5">
-        <f>'AEO Table 73'!AI41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="AI19" s="5">
-        <f>'AEO Table 73'!AJ41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>370</v>
       </c>
       <c r="B20" s="6">
         <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
@@ -18569,9 +18576,9 @@
         <v>91410000000</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B21" s="5">
         <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
@@ -18710,9 +18717,9 @@
         <v>13583444584264.561</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B22" s="207">
         <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
@@ -18863,20 +18870,20 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView topLeftCell="U10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:AI22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" style="2" customWidth="1"/>
     <col min="2" max="35" width="10" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="9.1640625" style="2"/>
+    <col min="36" max="16384" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B1" s="5">
         <v>2017</v>
@@ -18981,148 +18988,148 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="C2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="D2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="E2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="F2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="G2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="H2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="I2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="J2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="K2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="L2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="M2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="N2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="O2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="P2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="Q2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="R2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="S2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="T2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="U2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="V2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="W2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="X2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="Y2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="Z2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AA2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AB2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AC2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AD2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AE2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AF2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AG2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AH2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AI2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>323</v>
       </c>
@@ -19263,7 +19270,7 @@
         <v>19887484</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>324</v>
       </c>
@@ -19404,9 +19411,9 @@
         <v>1036999.9999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" ref="B5:AI5" si="0">10^6</f>
@@ -19545,224 +19552,224 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5">
-        <v>0</v>
-      </c>
-      <c r="V7" s="5">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
@@ -19866,7 +19873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>325</v>
       </c>
@@ -20007,7 +20014,7 @@
         <v>17906000</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>326</v>
       </c>
@@ -20148,7 +20155,7 @@
         <v>119596.09523809524</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
@@ -20289,7 +20296,7 @@
         <v>138690.47619047618</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>328</v>
       </c>
@@ -20430,7 +20437,7 @@
         <v>94981.738095238092</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>329</v>
       </c>
@@ -20571,9 +20578,9 @@
         <v>127595.23809523809</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B14" s="5">
         <f>'AEO Table 73'!C30*10^6/gal_per_barrel</f>
@@ -20712,150 +20719,150 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="C15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="D15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="E15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="F15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="G15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="H15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="I15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="J15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="K15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="L15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="M15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="N15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="O15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="P15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="Q15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="R15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="S15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="T15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="U15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="V15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="W15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="X15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="Y15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="Z15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AA15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AB15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AC15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AD15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AE15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AF15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AG15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AH15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AI15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
@@ -20960,7 +20967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>330</v>
       </c>
@@ -21101,291 +21108,291 @@
         <v>12992301.9717196</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="C18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="D18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="E18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="F18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="G18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="H18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="I18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="J18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="K18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="L18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="M18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="N18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="O18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="P18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="Q18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="R18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="S18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="T18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="U18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="V18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="W18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="X18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="Y18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="Z18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AA18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AB18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AC18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AD18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AE18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AF18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AG18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AH18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AI18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B18" s="5">
-        <f>'AEO Table 73'!C48*10^6</f>
-        <v>5723000</v>
-      </c>
-      <c r="C18" s="5">
-        <f>'AEO Table 73'!D48*10^6</f>
-        <v>5719936</v>
-      </c>
-      <c r="D18" s="5">
-        <f>'AEO Table 73'!E48*10^6</f>
-        <v>5709374</v>
-      </c>
-      <c r="E18" s="5">
-        <f>'AEO Table 73'!F48*10^6</f>
-        <v>5702021</v>
-      </c>
-      <c r="F18" s="5">
-        <f>'AEO Table 73'!G48*10^6</f>
-        <v>5699036</v>
-      </c>
-      <c r="G18" s="5">
-        <f>'AEO Table 73'!H48*10^6</f>
-        <v>5702903</v>
-      </c>
-      <c r="H18" s="5">
-        <f>'AEO Table 73'!I48*10^6</f>
-        <v>5701469</v>
-      </c>
-      <c r="I18" s="5">
-        <f>'AEO Table 73'!J48*10^6</f>
-        <v>5697845</v>
-      </c>
-      <c r="J18" s="5">
-        <f>'AEO Table 73'!K48*10^6</f>
-        <v>5696569</v>
-      </c>
-      <c r="K18" s="5">
-        <f>'AEO Table 73'!L48*10^6</f>
-        <v>5695571</v>
-      </c>
-      <c r="L18" s="5">
-        <f>'AEO Table 73'!M48*10^6</f>
-        <v>5691691</v>
-      </c>
-      <c r="M18" s="5">
-        <f>'AEO Table 73'!N48*10^6</f>
-        <v>5689583</v>
-      </c>
-      <c r="N18" s="5">
-        <f>'AEO Table 73'!O48*10^6</f>
-        <v>5687317</v>
-      </c>
-      <c r="O18" s="5">
-        <f>'AEO Table 73'!P48*10^6</f>
-        <v>5686403</v>
-      </c>
-      <c r="P18" s="5">
-        <f>'AEO Table 73'!Q48*10^6</f>
-        <v>5685931</v>
-      </c>
-      <c r="Q18" s="5">
-        <f>'AEO Table 73'!R48*10^6</f>
-        <v>5686055</v>
-      </c>
-      <c r="R18" s="5">
-        <f>'AEO Table 73'!S48*10^6</f>
-        <v>5686259</v>
-      </c>
-      <c r="S18" s="5">
-        <f>'AEO Table 73'!T48*10^6</f>
-        <v>5685382</v>
-      </c>
-      <c r="T18" s="5">
-        <f>'AEO Table 73'!U48*10^6</f>
-        <v>5685214</v>
-      </c>
-      <c r="U18" s="5">
-        <f>'AEO Table 73'!V48*10^6</f>
-        <v>5685896</v>
-      </c>
-      <c r="V18" s="5">
-        <f>'AEO Table 73'!W48*10^6</f>
-        <v>5686885</v>
-      </c>
-      <c r="W18" s="5">
-        <f>'AEO Table 73'!X48*10^6</f>
-        <v>5687922</v>
-      </c>
-      <c r="X18" s="5">
-        <f>'AEO Table 73'!Y48*10^6</f>
-        <v>5690170</v>
-      </c>
-      <c r="Y18" s="5">
-        <f>'AEO Table 73'!Z48*10^6</f>
-        <v>5690964</v>
-      </c>
-      <c r="Z18" s="5">
-        <f>'AEO Table 73'!AA48*10^6</f>
-        <v>5689439</v>
-      </c>
-      <c r="AA18" s="5">
-        <f>'AEO Table 73'!AB48*10^6</f>
-        <v>5688754</v>
-      </c>
-      <c r="AB18" s="5">
-        <f>'AEO Table 73'!AC48*10^6</f>
-        <v>5686469</v>
-      </c>
-      <c r="AC18" s="5">
-        <f>'AEO Table 73'!AD48*10^6</f>
-        <v>5684444</v>
-      </c>
-      <c r="AD18" s="5">
-        <f>'AEO Table 73'!AE48*10^6</f>
-        <v>5683516</v>
-      </c>
-      <c r="AE18" s="5">
-        <f>'AEO Table 73'!AF48*10^6</f>
-        <v>5682888</v>
-      </c>
-      <c r="AF18" s="5">
-        <f>'AEO Table 73'!AG48*10^6</f>
-        <v>5681393</v>
-      </c>
-      <c r="AG18" s="5">
-        <f>'AEO Table 73'!AH48*10^6</f>
-        <v>5679274</v>
-      </c>
-      <c r="AH18" s="5">
-        <f>'AEO Table 73'!AI48*10^6</f>
-        <v>5678185</v>
-      </c>
-      <c r="AI18" s="5">
-        <f>'AEO Table 73'!AJ48*10^6</f>
-        <v>5676202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="C19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="D19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="E19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="F19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="G19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="H19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="I19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="J19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="K19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="L19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="M19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="N19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="O19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="P19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="Q19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="R19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="S19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="T19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="U19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="V19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="W19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="X19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="Y19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="Z19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AA19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AB19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AC19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AD19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AE19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AF19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AG19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AH19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AI19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="B19" s="5">
-        <f>'AEO Table 73'!C41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="C19" s="5">
-        <f>'AEO Table 73'!D41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="D19" s="5">
-        <f>'AEO Table 73'!E41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="E19" s="5">
-        <f>'AEO Table 73'!F41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="F19" s="5">
-        <f>'AEO Table 73'!G41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="G19" s="5">
-        <f>'AEO Table 73'!H41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="H19" s="5">
-        <f>'AEO Table 73'!I41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="I19" s="5">
-        <f>'AEO Table 73'!J41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="J19" s="5">
-        <f>'AEO Table 73'!K41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="K19" s="5">
-        <f>'AEO Table 73'!L41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="L19" s="5">
-        <f>'AEO Table 73'!M41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="M19" s="5">
-        <f>'AEO Table 73'!N41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="N19" s="5">
-        <f>'AEO Table 73'!O41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="O19" s="5">
-        <f>'AEO Table 73'!P41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="P19" s="5">
-        <f>'AEO Table 73'!Q41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="Q19" s="5">
-        <f>'AEO Table 73'!R41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="R19" s="5">
-        <f>'AEO Table 73'!S41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="S19" s="5">
-        <f>'AEO Table 73'!T41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="T19" s="5">
-        <f>'AEO Table 73'!U41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="U19" s="5">
-        <f>'AEO Table 73'!V41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="V19" s="5">
-        <f>'AEO Table 73'!W41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="W19" s="5">
-        <f>'AEO Table 73'!X41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="X19" s="5">
-        <f>'AEO Table 73'!Y41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="Y19" s="5">
-        <f>'AEO Table 73'!Z41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="Z19" s="5">
-        <f>'AEO Table 73'!AA41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="AA19" s="5">
-        <f>'AEO Table 73'!AB41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="AB19" s="5">
-        <f>'AEO Table 73'!AC41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="AC19" s="5">
-        <f>'AEO Table 73'!AD41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="AD19" s="5">
-        <f>'AEO Table 73'!AE41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="AE19" s="5">
-        <f>'AEO Table 73'!AF41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="AF19" s="5">
-        <f>'AEO Table 73'!AG41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="AG19" s="5">
-        <f>'AEO Table 73'!AH41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="AH19" s="5">
-        <f>'AEO Table 73'!AI41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="AI19" s="5">
-        <f>'AEO Table 73'!AJ41*10^6</f>
-        <v>6287000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="B20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
@@ -21524,9 +21531,9 @@
         <v>91410</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B21" s="5">
         <f>'GREET1 Fuel_Specs'!$D$90</f>
@@ -21665,9 +21672,9 @@
         <v>13583444.58426456</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B22" s="5">
         <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
@@ -21818,17 +21825,19 @@
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.26953125" customWidth="1"/>
     <col min="2" max="35" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B1" s="2">
         <v>2017</v>
@@ -21933,7 +21942,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>310</v>
       </c>
@@ -22040,7 +22049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>311</v>
       </c>
@@ -22147,7 +22156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>318</v>
       </c>
@@ -22288,7 +22297,7 @@
         <v>119596.09523809524</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>319</v>
       </c>
@@ -22429,7 +22438,7 @@
         <v>138690.47619047618</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>312</v>
       </c>
@@ -22536,7 +22545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -22643,7 +22652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>320</v>
       </c>
@@ -22784,9 +22793,9 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -22891,9 +22900,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -22998,9 +23007,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -23119,14 +23128,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>299</v>
       </c>

--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shelley\Dropbox (Energy Innovation)\PC (2)\Documents\GitHub_Repositories\eps-us\InputData\web-app\BCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/OK/web-app/BCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8A7001-1A9D-42BC-A0B1-892F751D4320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C5DD26E-CF3C-DB46-9BD8-472FBD9AEFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15345" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="425">
   <si>
     <t>(from physical units to million Btu)</t>
   </si>
@@ -2462,6 +2462,9 @@
   </si>
   <si>
     <t>barrels of oil</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
   </si>
 </sst>
 </file>
@@ -3486,7 +3489,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3885,6 +3888,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4324,37 +4328,43 @@
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.36328125" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="39.36328125" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1" s="208">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4363,152 +4373,152 @@
       </c>
       <c r="C6" s="202"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="196" t="s">
         <v>401</v>
       </c>
       <c r="C13" s="202"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="198" t="s">
         <v>331</v>
       </c>
       <c r="B40" s="199"/>
     </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="203" t="s">
         <v>349</v>
       </c>
@@ -4519,7 +4529,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="201" t="s">
         <v>392</v>
       </c>
@@ -4527,7 +4537,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="197" t="s">
         <v>324</v>
       </c>
@@ -4535,7 +4545,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="197" t="s">
         <v>366</v>
       </c>
@@ -4543,7 +4553,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="201" t="s">
         <v>387</v>
       </c>
@@ -4551,7 +4561,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="201" t="s">
         <v>389</v>
       </c>
@@ -4559,7 +4569,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="201" t="s">
         <v>356</v>
       </c>
@@ -4570,16 +4580,16 @@
         <v>360</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="201"/>
     </row>
-    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="198" t="s">
         <v>336</v>
       </c>
       <c r="B49" s="199"/>
     </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="203" t="s">
         <v>349</v>
       </c>
@@ -4587,7 +4597,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="201" t="s">
         <v>392</v>
       </c>
@@ -4595,7 +4605,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="197" t="s">
         <v>324</v>
       </c>
@@ -4603,7 +4613,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="197" t="s">
         <v>366</v>
       </c>
@@ -4611,7 +4621,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="201" t="s">
         <v>391</v>
       </c>
@@ -4619,7 +4629,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="201" t="s">
         <v>388</v>
       </c>
@@ -4627,7 +4637,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="201" t="s">
         <v>354</v>
       </c>
@@ -4635,37 +4645,37 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="198" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="198" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="196" t="s">
         <v>316</v>
       </c>
       <c r="B65" s="202"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="200">
         <v>42</v>
       </c>
@@ -4673,7 +4683,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <f>3.142*10^6</f>
         <v>3142000</v>
@@ -4700,14 +4710,14 @@
       <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="7" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7265625" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.08984375" style="7"/>
+    <col min="1" max="1" width="20.83203125" style="7" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="18" t="s">
         <v>386</v>
       </c>
@@ -4814,8 +4824,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="20" t="s">
         <v>121</v>
       </c>
@@ -4826,7 +4836,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="20" t="s">
         <v>120</v>
       </c>
@@ -4839,7 +4849,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="20" t="s">
         <v>118</v>
       </c>
@@ -4850,7 +4860,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="20" t="s">
         <v>117</v>
       </c>
@@ -4861,7 +4871,7 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>116</v>
       </c>
@@ -4869,12 +4879,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="18" t="s">
         <v>2</v>
       </c>
@@ -4984,7 +4994,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
@@ -5094,17 +5104,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>114</v>
       </c>
@@ -5217,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>113</v>
       </c>
@@ -5330,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>112</v>
       </c>
@@ -5443,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>111</v>
       </c>
@@ -5556,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>110</v>
       </c>
@@ -5669,7 +5679,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>109</v>
       </c>
@@ -5782,7 +5792,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>108</v>
       </c>
@@ -5895,7 +5905,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>107</v>
       </c>
@@ -6008,7 +6018,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>106</v>
       </c>
@@ -6121,7 +6131,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>105</v>
       </c>
@@ -6234,7 +6244,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>104</v>
       </c>
@@ -6347,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>103</v>
       </c>
@@ -6460,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>102</v>
       </c>
@@ -6573,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>100</v>
       </c>
@@ -6686,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>99</v>
       </c>
@@ -6799,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>98</v>
       </c>
@@ -6912,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>97</v>
       </c>
@@ -7025,7 +7035,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>96</v>
       </c>
@@ -7138,7 +7148,7 @@
         <v>-2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>95</v>
       </c>
@@ -7251,7 +7261,7 @@
         <v>-2.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>379</v>
       </c>
@@ -7364,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>377</v>
       </c>
@@ -7477,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>94</v>
       </c>
@@ -7590,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>93</v>
       </c>
@@ -7703,7 +7713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>92</v>
       </c>
@@ -7816,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>91</v>
       </c>
@@ -7929,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>90</v>
       </c>
@@ -8042,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>89</v>
       </c>
@@ -8155,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>88</v>
       </c>
@@ -8268,7 +8278,7 @@
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>87</v>
       </c>
@@ -8381,7 +8391,7 @@
         <v>-4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>86</v>
       </c>
@@ -8494,7 +8504,7 @@
         <v>-3.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>85</v>
       </c>
@@ -8607,12 +8617,12 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>84</v>
       </c>
@@ -8725,7 +8735,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>83</v>
       </c>
@@ -8838,7 +8848,7 @@
         <v>-3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>82</v>
       </c>
@@ -8951,7 +8961,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>81</v>
       </c>
@@ -9064,12 +9074,12 @@
         <v>-2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>80</v>
       </c>
@@ -9182,7 +9192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>79</v>
       </c>
@@ -9295,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>78</v>
       </c>
@@ -9408,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>77</v>
       </c>
@@ -9521,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>76</v>
       </c>
@@ -9634,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>75</v>
       </c>
@@ -9747,7 +9757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>74</v>
       </c>
@@ -9860,12 +9870,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>73</v>
       </c>
@@ -9978,7 +9988,7 @@
         <v>-1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>72</v>
       </c>
@@ -10091,7 +10101,7 @@
         <v>-1.0139999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>71</v>
       </c>
@@ -10204,7 +10214,7 @@
         <v>-2.1699999999999999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>70</v>
       </c>
@@ -10317,7 +10327,7 @@
         <v>2.8499999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>69</v>
       </c>
@@ -10430,7 +10440,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>68</v>
       </c>
@@ -10543,7 +10553,7 @@
         <v>-5.5000000000000002E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>67</v>
       </c>
@@ -10656,7 +10666,7 @@
         <v>-9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>66</v>
       </c>
@@ -10769,7 +10779,7 @@
         <v>2.5799999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>65</v>
       </c>
@@ -10882,7 +10892,7 @@
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>64</v>
       </c>
@@ -10995,7 +11005,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>63</v>
       </c>
@@ -11108,7 +11118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>62</v>
       </c>
@@ -11221,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>61</v>
       </c>
@@ -11334,78 +11344,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="208" t="s">
+    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="209" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="208"/>
-      <c r="D78" s="208"/>
-      <c r="E78" s="208"/>
-      <c r="F78" s="208"/>
-      <c r="G78" s="208"/>
-      <c r="H78" s="208"/>
-      <c r="I78" s="208"/>
-      <c r="J78" s="208"/>
-      <c r="K78" s="208"/>
-      <c r="L78" s="208"/>
-      <c r="M78" s="208"/>
-      <c r="N78" s="208"/>
-      <c r="O78" s="208"/>
-      <c r="P78" s="208"/>
-      <c r="Q78" s="208"/>
-      <c r="R78" s="208"/>
-      <c r="S78" s="208"/>
-      <c r="T78" s="208"/>
-      <c r="U78" s="208"/>
-      <c r="V78" s="208"/>
-      <c r="W78" s="208"/>
-      <c r="X78" s="208"/>
-      <c r="Y78" s="208"/>
-      <c r="Z78" s="208"/>
-      <c r="AA78" s="208"/>
-      <c r="AB78" s="208"/>
-      <c r="AC78" s="208"/>
-      <c r="AD78" s="208"/>
-      <c r="AE78" s="208"/>
-      <c r="AF78" s="208"/>
-      <c r="AG78" s="208"/>
-      <c r="AH78" s="208"/>
-      <c r="AI78" s="208"/>
-      <c r="AJ78" s="208"/>
-      <c r="AK78" s="208"/>
-    </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="209"/>
+      <c r="D78" s="209"/>
+      <c r="E78" s="209"/>
+      <c r="F78" s="209"/>
+      <c r="G78" s="209"/>
+      <c r="H78" s="209"/>
+      <c r="I78" s="209"/>
+      <c r="J78" s="209"/>
+      <c r="K78" s="209"/>
+      <c r="L78" s="209"/>
+      <c r="M78" s="209"/>
+      <c r="N78" s="209"/>
+      <c r="O78" s="209"/>
+      <c r="P78" s="209"/>
+      <c r="Q78" s="209"/>
+      <c r="R78" s="209"/>
+      <c r="S78" s="209"/>
+      <c r="T78" s="209"/>
+      <c r="U78" s="209"/>
+      <c r="V78" s="209"/>
+      <c r="W78" s="209"/>
+      <c r="X78" s="209"/>
+      <c r="Y78" s="209"/>
+      <c r="Z78" s="209"/>
+      <c r="AA78" s="209"/>
+      <c r="AB78" s="209"/>
+      <c r="AC78" s="209"/>
+      <c r="AD78" s="209"/>
+      <c r="AE78" s="209"/>
+      <c r="AF78" s="209"/>
+      <c r="AG78" s="209"/>
+      <c r="AH78" s="209"/>
+      <c r="AI78" s="209"/>
+      <c r="AJ78" s="209"/>
+      <c r="AK78" s="209"/>
+    </row>
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="8" t="s">
         <v>372</v>
       </c>
@@ -11425,40 +11435,40 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.08984375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" style="22"/>
-    <col min="11" max="11" width="10.36328125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="12.36328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.08984375" style="22"/>
-    <col min="15" max="15" width="12.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.08984375" style="22"/>
-    <col min="19" max="19" width="10.36328125" style="22" customWidth="1"/>
-    <col min="20" max="22" width="9.08984375" style="22"/>
-    <col min="23" max="23" width="10.7265625" style="22" customWidth="1"/>
-    <col min="24" max="16384" width="9.08984375" style="22"/>
+    <col min="1" max="1" width="33.1640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="22"/>
+    <col min="11" max="11" width="10.33203125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1640625" style="22"/>
+    <col min="15" max="15" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.1640625" style="22"/>
+    <col min="19" max="19" width="10.33203125" style="22" customWidth="1"/>
+    <col min="20" max="22" width="9.1640625" style="22"/>
+    <col min="23" max="23" width="10.6640625" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="9.1640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>126</v>
       </c>
@@ -11481,7 +11491,7 @@
       </c>
       <c r="I3" s="29"/>
     </row>
-    <row r="4" spans="1:23" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="29" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
       <c r="B4" s="31" t="s">
         <v>302</v>
@@ -11506,7 +11516,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>137</v>
       </c>
@@ -11523,7 +11533,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="40"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
         <v>139</v>
       </c>
@@ -11548,7 +11558,7 @@
       <c r="T6" s="47"/>
       <c r="V6" s="47"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>142</v>
       </c>
@@ -11585,7 +11595,7 @@
       <c r="V7" s="55"/>
       <c r="W7" s="55"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>143</v>
       </c>
@@ -11622,7 +11632,7 @@
       <c r="V8" s="55"/>
       <c r="W8" s="55"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>144</v>
       </c>
@@ -11659,7 +11669,7 @@
       <c r="V9" s="55"/>
       <c r="W9" s="55"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
         <v>145</v>
       </c>
@@ -11692,7 +11702,7 @@
       <c r="V10" s="55"/>
       <c r="W10" s="55"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="48" t="s">
         <v>146</v>
       </c>
@@ -11733,7 +11743,7 @@
       <c r="V11" s="55"/>
       <c r="W11" s="55"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="48" t="s">
         <v>147</v>
       </c>
@@ -11770,7 +11780,7 @@
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>148</v>
       </c>
@@ -11799,7 +11809,7 @@
         <v>0.93726057101554028</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>149</v>
       </c>
@@ -11828,7 +11838,7 @@
         <v>0.93726057101554017</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="48" t="s">
         <v>150</v>
       </c>
@@ -11866,7 +11876,7 @@
       <c r="V15" s="65"/>
       <c r="W15" s="61"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="48" t="s">
         <v>151</v>
       </c>
@@ -11900,7 +11910,7 @@
       <c r="V16" s="65"/>
       <c r="W16" s="61"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
         <v>152</v>
       </c>
@@ -11938,7 +11948,7 @@
       <c r="V17" s="65"/>
       <c r="W17" s="61"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
         <v>153</v>
       </c>
@@ -11972,7 +11982,7 @@
       <c r="V18" s="65"/>
       <c r="W18" s="61"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="48" t="s">
         <v>154</v>
       </c>
@@ -12006,7 +12016,7 @@
       <c r="M19" s="65"/>
       <c r="N19" s="61"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
         <v>303</v>
       </c>
@@ -12037,7 +12047,7 @@
       <c r="O20" s="55"/>
       <c r="W20" s="61"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="68" t="s">
         <v>406</v>
       </c>
@@ -12064,7 +12074,7 @@
       </c>
       <c r="I21" s="54"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
         <v>155</v>
       </c>
@@ -12093,7 +12103,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="48" t="s">
         <v>156</v>
       </c>
@@ -12122,7 +12132,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="48" t="s">
         <v>157</v>
       </c>
@@ -12151,7 +12161,7 @@
         <v>0.93476175247841387</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="70" t="s">
         <v>407</v>
       </c>
@@ -12180,7 +12190,7 @@
         <v>0.93404711473172097</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="71" t="s">
         <v>158</v>
       </c>
@@ -12209,7 +12219,7 @@
         <v>0.93500003751584637</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="71" t="s">
         <v>159</v>
       </c>
@@ -12238,7 +12248,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="71" t="s">
         <v>160</v>
       </c>
@@ -12268,7 +12278,7 @@
       </c>
       <c r="J28" s="73"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="71" t="s">
         <v>161</v>
       </c>
@@ -12297,7 +12307,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="71" t="s">
         <v>162</v>
       </c>
@@ -12326,7 +12336,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="71" t="s">
         <v>163</v>
       </c>
@@ -12356,7 +12366,7 @@
       </c>
       <c r="J31" s="73"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="71" t="s">
         <v>164</v>
       </c>
@@ -12385,7 +12395,7 @@
         <v>0.90299302022950434</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="71" t="s">
         <v>165</v>
       </c>
@@ -12415,7 +12425,7 @@
       </c>
       <c r="J33" s="73"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="71" t="s">
         <v>166</v>
       </c>
@@ -12444,7 +12454,7 @@
         <v>0.92867915675168411</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="71" t="s">
         <v>167</v>
       </c>
@@ -12474,7 +12484,7 @@
       </c>
       <c r="J35" s="73"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="71" t="s">
         <v>168</v>
       </c>
@@ -12504,7 +12514,7 @@
       </c>
       <c r="J36" s="73"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="71" t="s">
         <v>169</v>
       </c>
@@ -12534,7 +12544,7 @@
       </c>
       <c r="J37" s="73"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="71" t="s">
         <v>170</v>
       </c>
@@ -12564,7 +12574,7 @@
       </c>
       <c r="J38" s="73"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="71" t="s">
         <v>171</v>
       </c>
@@ -12595,7 +12605,7 @@
       <c r="J39" s="73"/>
       <c r="K39" s="73"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="71" t="s">
         <v>172</v>
       </c>
@@ -12626,7 +12636,7 @@
       <c r="J40" s="73"/>
       <c r="K40" s="73"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="71" t="s">
         <v>173</v>
       </c>
@@ -12656,7 +12666,7 @@
       </c>
       <c r="K41" s="73"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="70" t="s">
         <v>174</v>
       </c>
@@ -12686,7 +12696,7 @@
       </c>
       <c r="K42" s="73"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="70" t="s">
         <v>175</v>
       </c>
@@ -12716,7 +12726,7 @@
       </c>
       <c r="K43" s="73"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="71" t="s">
         <v>176</v>
       </c>
@@ -12746,7 +12756,7 @@
       </c>
       <c r="K44" s="73"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>177</v>
       </c>
@@ -12775,7 +12785,7 @@
         <v>0.93361506882395562</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="71" t="s">
         <v>178</v>
       </c>
@@ -12805,7 +12815,7 @@
       </c>
       <c r="K46" s="73"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="48" t="s">
         <v>408</v>
       </c>
@@ -12834,7 +12844,7 @@
         <v>0.93361506882395551</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="48" t="s">
         <v>179</v>
       </c>
@@ -12863,7 +12873,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="48" t="s">
         <v>180</v>
       </c>
@@ -12893,7 +12903,7 @@
       </c>
       <c r="J49" s="73"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="48" t="s">
         <v>181</v>
       </c>
@@ -12923,7 +12933,7 @@
       </c>
       <c r="J50" s="73"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="48" t="s">
         <v>182</v>
       </c>
@@ -12953,7 +12963,7 @@
       </c>
       <c r="J51" s="73"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="48" t="s">
         <v>183</v>
       </c>
@@ -12983,7 +12993,7 @@
       </c>
       <c r="J52" s="73"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="48" t="s">
         <v>184</v>
       </c>
@@ -13013,7 +13023,7 @@
       </c>
       <c r="J53" s="73"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="48" t="s">
         <v>185</v>
       </c>
@@ -13043,7 +13053,7 @@
       </c>
       <c r="J54" s="73"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="48" t="s">
         <v>186</v>
       </c>
@@ -13073,7 +13083,7 @@
       </c>
       <c r="J55" s="73"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="67" t="s">
         <v>187</v>
       </c>
@@ -13102,7 +13112,7 @@
         <v>0.92157077225989936</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="48" t="s">
         <v>188</v>
       </c>
@@ -13129,7 +13139,7 @@
         <v>0.92932939503336609</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="41" t="s">
         <v>189</v>
       </c>
@@ -13158,7 +13168,7 @@
         <v>0.93722267739953979</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="48" t="s">
         <v>191</v>
       </c>
@@ -13181,7 +13191,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="67" t="s">
         <v>194</v>
       </c>
@@ -13210,7 +13220,7 @@
         <v>0.90266299357208446</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="48" t="s">
         <v>195</v>
       </c>
@@ -13240,7 +13250,7 @@
       </c>
       <c r="L61" s="47"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="48" t="s">
         <v>196</v>
       </c>
@@ -13269,7 +13279,7 @@
         <v>0.84548104956268222</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="71" t="s">
         <v>197</v>
       </c>
@@ -13290,7 +13300,7 @@
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="41" t="s">
         <v>190</v>
       </c>
@@ -13320,7 +13330,7 @@
       </c>
       <c r="K64" s="47"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="67" t="s">
         <v>198</v>
       </c>
@@ -13341,7 +13351,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="68" t="s">
         <v>200</v>
       </c>
@@ -13367,7 +13377,7 @@
       <c r="I66" s="94"/>
       <c r="K66" s="95"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="68" t="s">
         <v>201</v>
       </c>
@@ -13395,7 +13405,7 @@
       </c>
       <c r="K67" s="95"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="68" t="s">
         <v>202</v>
       </c>
@@ -13423,7 +13433,7 @@
       </c>
       <c r="K68" s="95"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="68" t="s">
         <v>203</v>
       </c>
@@ -13451,7 +13461,7 @@
       </c>
       <c r="K69" s="95"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="68" t="s">
         <v>204</v>
       </c>
@@ -13480,7 +13490,7 @@
       <c r="K70" s="95"/>
       <c r="M70" s="73"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="71" t="s">
         <v>205</v>
       </c>
@@ -13509,7 +13519,7 @@
       <c r="K71" s="95"/>
       <c r="L71" s="95"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="70" t="s">
         <v>206</v>
       </c>
@@ -13537,7 +13547,7 @@
       </c>
       <c r="K72" s="95"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="48" t="s">
         <v>207</v>
       </c>
@@ -13564,7 +13574,7 @@
         <v>0.94242199100000001</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="48" t="s">
         <v>208</v>
       </c>
@@ -13592,7 +13602,7 @@
       </c>
       <c r="K74" s="97"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="48" t="s">
         <v>409</v>
       </c>
@@ -13620,7 +13630,7 @@
       </c>
       <c r="K75" s="97"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
         <v>209</v>
       </c>
@@ -13647,7 +13657,7 @@
         <v>0.93173565722585328</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="70" t="s">
         <v>210</v>
       </c>
@@ -13676,7 +13686,7 @@
       <c r="J77" s="55"/>
       <c r="K77" s="98"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="71" t="s">
         <v>211</v>
       </c>
@@ -13704,7 +13714,7 @@
       </c>
       <c r="K78" s="97"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="71" t="s">
         <v>212</v>
       </c>
@@ -13731,7 +13741,7 @@
         <v>0.93680161201685286</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="71" t="s">
         <v>213</v>
       </c>
@@ -13758,7 +13768,7 @@
         <v>0.93292760238366934</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="71" t="s">
         <v>214</v>
       </c>
@@ -13785,7 +13795,7 @@
         <v>0.96554227633195577</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="71" t="s">
         <v>410</v>
       </c>
@@ -13812,7 +13822,7 @@
         <v>0.93359512366662756</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="99" t="s">
         <v>215</v>
       </c>
@@ -13835,7 +13845,7 @@
       </c>
       <c r="I83" s="102"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="103" t="s">
         <v>216</v>
       </c>
@@ -13858,7 +13868,7 @@
         <v>0.85292563033160751</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="103" t="s">
         <v>217</v>
       </c>
@@ -13881,7 +13891,7 @@
         <v>0.88047037071579148</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="103" t="s">
         <v>218</v>
       </c>
@@ -13908,7 +13918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="106" t="s">
         <v>219</v>
       </c>
@@ -13935,7 +13945,7 @@
         <v>0.90447216306662592</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="107" t="s">
         <v>220</v>
       </c>
@@ -13962,7 +13972,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="73" t="s">
         <v>221</v>
       </c>
@@ -13989,7 +13999,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
         <v>222</v>
       </c>
@@ -14016,7 +14026,7 @@
         <v>0.8252427184466018</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="73" t="s">
         <v>223</v>
       </c>
@@ -14043,7 +14053,7 @@
         <v>0.87681159420289856</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="118" t="s">
         <v>411</v>
       </c>
@@ -14077,7 +14087,7 @@
       <c r="M92" s="121"/>
       <c r="N92" s="122"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="123" t="s">
         <v>412</v>
       </c>
@@ -14103,12 +14113,12 @@
       <c r="M93" s="125"/>
       <c r="N93" s="126"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="127"/>
       <c r="B94" s="128"/>
       <c r="N94" s="129"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="127" t="s">
         <v>224</v>
       </c>
@@ -14123,7 +14133,7 @@
       <c r="M95" s="73"/>
       <c r="N95" s="129"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="130" t="s">
         <v>225</v>
       </c>
@@ -14141,7 +14151,7 @@
       <c r="M96" s="133"/>
       <c r="N96" s="134"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="135" t="s">
         <v>226</v>
       </c>
@@ -14185,7 +14195,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="136" t="s">
         <v>233</v>
       </c>
@@ -14229,7 +14239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="137" t="s">
         <v>234</v>
       </c>
@@ -14273,7 +14283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="123" t="s">
         <v>235</v>
       </c>
@@ -14317,7 +14327,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="127" t="s">
         <v>236</v>
       </c>
@@ -14361,13 +14371,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="127"/>
       <c r="B102" s="128"/>
       <c r="F102" s="73"/>
       <c r="G102" s="129"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="127" t="s">
         <v>237</v>
       </c>
@@ -14376,7 +14386,7 @@
       <c r="F103" s="73"/>
       <c r="G103" s="129"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="127" t="s">
         <v>238</v>
       </c>
@@ -14399,7 +14409,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="130" t="s">
         <v>233</v>
       </c>
@@ -14420,7 +14430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="22" t="s">
         <v>242</v>
       </c>
@@ -14443,7 +14453,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="s">
         <v>243</v>
       </c>
@@ -14466,7 +14476,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="118" t="s">
         <v>244</v>
       </c>
@@ -14489,7 +14499,7 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="127" t="s">
         <v>245</v>
       </c>
@@ -14512,7 +14522,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="127" t="s">
         <v>246</v>
       </c>
@@ -14535,17 +14545,17 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="127"/>
       <c r="B111" s="146"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="130" t="s">
         <v>247</v>
       </c>
       <c r="B112" s="147"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="22" t="s">
         <v>248</v>
       </c>
@@ -14553,7 +14563,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="148" t="s">
         <v>249</v>
       </c>
@@ -14563,7 +14573,7 @@
       <c r="C114" s="73"/>
       <c r="D114" s="73"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="73" t="s">
         <v>250</v>
       </c>
@@ -14571,7 +14581,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="22" t="s">
         <v>251</v>
       </c>
@@ -14584,7 +14594,7 @@
       <c r="R116" s="151"/>
       <c r="V116" s="151"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="22" t="s">
         <v>252</v>
       </c>
@@ -14597,7 +14607,7 @@
       <c r="R117" s="154"/>
       <c r="V117" s="154"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B118" s="155"/>
       <c r="C118" s="156"/>
       <c r="D118" s="157"/>
@@ -14617,7 +14627,7 @@
       <c r="W118" s="158"/>
       <c r="X118" s="157"/>
     </row>
-    <row r="119" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="73" t="s">
         <v>253</v>
       </c>
@@ -14640,7 +14650,7 @@
       <c r="W119" s="160"/>
       <c r="X119" s="161"/>
     </row>
-    <row r="120" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="162"/>
       <c r="C120" s="163"/>
       <c r="D120" s="164"/>
@@ -14660,7 +14670,7 @@
       <c r="W120" s="163"/>
       <c r="X120" s="164"/>
     </row>
-    <row r="121" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="162">
         <v>10</v>
       </c>
@@ -14692,7 +14702,7 @@
       <c r="W121" s="163"/>
       <c r="X121" s="164"/>
     </row>
-    <row r="122" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="162">
         <v>10</v>
       </c>
@@ -14724,7 +14734,7 @@
       <c r="W122" s="163"/>
       <c r="X122" s="164"/>
     </row>
-    <row r="123" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="162" t="s">
         <v>254</v>
       </c>
@@ -14780,7 +14790,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="162">
         <v>1990</v>
       </c>
@@ -14836,7 +14846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="162">
         <v>1995</v>
       </c>
@@ -14892,7 +14902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B126" s="168">
         <v>2000</v>
       </c>
@@ -14948,7 +14958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B127" s="22">
         <v>2005</v>
       </c>
@@ -15004,7 +15014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="148"/>
       <c r="B128" s="22">
         <v>2010</v>
@@ -15061,7 +15071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="171"/>
       <c r="B129" s="172">
         <v>2015</v>
@@ -15119,7 +15129,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="175"/>
       <c r="B130" s="176">
         <v>2017</v>
@@ -15177,7 +15187,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="175"/>
       <c r="B131" s="179">
         <v>2020</v>
@@ -15193,7 +15203,7 @@
       <c r="G131" s="174"/>
       <c r="H131" s="174"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="175"/>
       <c r="B132" s="179"/>
       <c r="C132" s="179"/>
@@ -15203,7 +15213,7 @@
       <c r="G132" s="174"/>
       <c r="H132" s="174"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="175" t="s">
         <v>262</v>
       </c>
@@ -15215,7 +15225,7 @@
       <c r="G133" s="174"/>
       <c r="H133" s="174"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="181" t="s">
         <v>263</v>
       </c>
@@ -15237,7 +15247,7 @@
       <c r="G134" s="174"/>
       <c r="H134" s="174"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="174" t="s">
         <v>269</v>
       </c>
@@ -15259,7 +15269,7 @@
       <c r="G135" s="174"/>
       <c r="H135" s="174"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="171" t="s">
         <v>270</v>
       </c>
@@ -15281,7 +15291,7 @@
       <c r="G136" s="174"/>
       <c r="H136" s="174"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="175" t="s">
         <v>271</v>
       </c>
@@ -15303,7 +15313,7 @@
       <c r="G137" s="174"/>
       <c r="H137" s="174"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="175" t="s">
         <v>272</v>
       </c>
@@ -15325,7 +15335,7 @@
       <c r="G138" s="174"/>
       <c r="H138" s="174"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="175" t="s">
         <v>273</v>
       </c>
@@ -15347,7 +15357,7 @@
       <c r="G139" s="174"/>
       <c r="H139" s="174"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="175"/>
       <c r="B140" s="163"/>
       <c r="C140" s="179"/>
@@ -15357,7 +15367,7 @@
       <c r="G140" s="174"/>
       <c r="H140" s="174"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="181" t="s">
         <v>274</v>
       </c>
@@ -15379,7 +15389,7 @@
       <c r="G141" s="174"/>
       <c r="H141" s="174"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="174" t="s">
         <v>280</v>
       </c>
@@ -15401,7 +15411,7 @@
       <c r="G142" s="174"/>
       <c r="H142" s="174"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="171" t="s">
         <v>281</v>
       </c>
@@ -15424,7 +15434,7 @@
       <c r="H143" s="172"/>
       <c r="I143" s="190"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="175" t="s">
         <v>282</v>
       </c>
@@ -15447,7 +15457,7 @@
       <c r="H144" s="176"/>
       <c r="I144" s="129"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="175" t="s">
         <v>283</v>
       </c>
@@ -15470,7 +15480,7 @@
       <c r="H145" s="176"/>
       <c r="I145" s="129"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="175" t="s">
         <v>284</v>
       </c>
@@ -15493,7 +15503,7 @@
       <c r="H146" s="176"/>
       <c r="I146" s="129"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="175"/>
       <c r="B147" s="179"/>
       <c r="C147" s="177"/>
@@ -15504,7 +15514,7 @@
       <c r="H147" s="176"/>
       <c r="I147" s="129"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="175" t="s">
         <v>285</v>
       </c>
@@ -15533,7 +15543,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="175" t="s">
         <v>294</v>
       </c>
@@ -15562,7 +15572,7 @@
         <v>2684519.5376862194</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="175" t="s">
         <v>295</v>
       </c>
@@ -15591,7 +15601,7 @@
         <v>2684.5195376862198</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="195" t="s">
         <v>296</v>
       </c>
@@ -15620,7 +15630,7 @@
         <v>2.6845195376862194</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="22" t="s">
         <v>297</v>
       </c>
@@ -15649,7 +15659,7 @@
         <v>745.69987157950538</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="22" t="s">
         <v>298</v>
       </c>
@@ -15678,7 +15688,7 @@
         <v>0.74569987157950535</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="22" t="s">
         <v>299</v>
       </c>
@@ -15707,7 +15717,7 @@
         <v>2544.4335839531336</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="22" t="s">
         <v>300</v>
       </c>
@@ -15736,7 +15746,7 @@
         <v>2.5444335839531337E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="22" t="s">
         <v>301</v>
       </c>
@@ -15765,7 +15775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="22" t="s">
         <v>413</v>
       </c>
@@ -15785,7 +15795,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="22" t="s">
         <v>414</v>
       </c>
@@ -15805,7 +15815,7 @@
         <v>1609340</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="22" t="s">
         <v>415</v>
       </c>
@@ -15825,7 +15835,7 @@
         <v>1609.34</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="22" t="s">
         <v>416</v>
       </c>
@@ -15845,7 +15855,7 @@
         <v>1.60934</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="22" t="s">
         <v>417</v>
       </c>
@@ -15865,7 +15875,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="22" t="s">
         <v>418</v>
       </c>
@@ -15919,14 +15929,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.81640625" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>404</v>
       </c>
@@ -16033,7 +16043,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>346</v>
       </c>
@@ -16174,7 +16184,7 @@
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>323</v>
       </c>
@@ -16315,7 +16325,7 @@
         <v>19887484000000</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>324</v>
       </c>
@@ -16456,7 +16466,7 @@
         <v>1036999999999999.9</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>340</v>
       </c>
@@ -16597,7 +16607,7 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>341</v>
       </c>
@@ -16704,7 +16714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>342</v>
       </c>
@@ -16811,7 +16821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>343</v>
       </c>
@@ -16918,7 +16928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>325</v>
       </c>
@@ -17059,7 +17069,7 @@
         <v>17906000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>326</v>
       </c>
@@ -17200,7 +17210,7 @@
         <v>5810700000000</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
@@ -17341,7 +17351,7 @@
         <v>5810700000000</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>328</v>
       </c>
@@ -17482,7 +17492,7 @@
         <v>5810700000000</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>329</v>
       </c>
@@ -17623,7 +17633,7 @@
         <v>5810700000000</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>371</v>
       </c>
@@ -17764,7 +17774,7 @@
         <v>5810700000000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>347</v>
       </c>
@@ -17905,7 +17915,7 @@
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>344</v>
       </c>
@@ -18012,7 +18022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>330</v>
       </c>
@@ -18153,7 +18163,7 @@
         <v>12992301971719.6</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>367</v>
       </c>
@@ -18294,7 +18304,7 @@
         <v>5810700000000</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>368</v>
       </c>
@@ -18435,7 +18445,7 @@
         <v>5810700000000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -18576,7 +18586,7 @@
         <v>91410000000</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>370</v>
       </c>
@@ -18717,7 +18727,7 @@
         <v>13583444584264.561</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>366</v>
       </c>
@@ -18874,14 +18884,14 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" style="2" customWidth="1"/>
     <col min="2" max="35" width="10" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="9.08984375" style="2"/>
+    <col min="36" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>405</v>
       </c>
@@ -18988,7 +18998,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>352</v>
       </c>
@@ -19129,7 +19139,7 @@
         <v>3142000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>323</v>
       </c>
@@ -19270,7 +19280,7 @@
         <v>19887484</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>324</v>
       </c>
@@ -19411,7 +19421,7 @@
         <v>1036999.9999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>358</v>
       </c>
@@ -19552,7 +19562,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>341</v>
       </c>
@@ -19659,7 +19669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>342</v>
       </c>
@@ -19766,7 +19776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>343</v>
       </c>
@@ -19873,7 +19883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>325</v>
       </c>
@@ -20014,7 +20024,7 @@
         <v>17906000</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>326</v>
       </c>
@@ -20155,7 +20165,7 @@
         <v>119596.09523809524</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
@@ -20296,7 +20306,7 @@
         <v>138690.47619047618</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>328</v>
       </c>
@@ -20437,7 +20447,7 @@
         <v>94981.738095238092</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>329</v>
       </c>
@@ -20578,7 +20588,7 @@
         <v>127595.23809523809</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>371</v>
       </c>
@@ -20719,7 +20729,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>353</v>
       </c>
@@ -20860,7 +20870,7 @@
         <v>3142000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>344</v>
       </c>
@@ -20967,7 +20977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>330</v>
       </c>
@@ -21108,7 +21118,7 @@
         <v>12992301.9717196</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>367</v>
       </c>
@@ -21249,7 +21259,7 @@
         <v>5810700</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>368</v>
       </c>
@@ -21390,7 +21400,7 @@
         <v>5810700</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>369</v>
       </c>
@@ -21531,7 +21541,7 @@
         <v>91410</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>370</v>
       </c>
@@ -21672,7 +21682,7 @@
         <v>13583444.58426456</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>366</v>
       </c>
@@ -21829,13 +21839,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.26953125" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="2" max="35" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>403</v>
       </c>
@@ -21942,7 +21952,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>310</v>
       </c>
@@ -22049,7 +22059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>311</v>
       </c>
@@ -22156,7 +22166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>318</v>
       </c>
@@ -22297,7 +22307,7 @@
         <v>119596.09523809524</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>319</v>
       </c>
@@ -22438,7 +22448,7 @@
         <v>138690.47619047618</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>312</v>
       </c>
@@ -22545,7 +22555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -22652,7 +22662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>320</v>
       </c>
@@ -22793,7 +22803,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>400</v>
       </c>
@@ -22900,7 +22910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>369</v>
       </c>
@@ -23007,7 +23017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>366</v>
       </c>
@@ -23128,14 +23138,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>299</v>
       </c>

--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/OK/web-app/BCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/aaggarwal/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state_3.3/web-app/bcf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C5DD26E-CF3C-DB46-9BD8-472FBD9AEFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76952F9-3660-0F42-932E-7660B4B2CD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="424">
   <si>
     <t>(from physical units to million Btu)</t>
   </si>
@@ -2462,9 +2462,6 @@
   </si>
   <si>
     <t>barrels of oil</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
   </si>
 </sst>
 </file>
@@ -4339,9 +4336,6 @@
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B1" t="s">
-        <v>424</v>
-      </c>
       <c r="C1" s="208">
         <v>44631</v>
       </c>
